--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>672038.2224619532</v>
+        <v>671259.9458103369</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>288.334965525335</v>
       </c>
       <c r="C11" t="n">
-        <v>276.3462824830168</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>267.3275865275447</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I11" t="n">
-        <v>47.16062625453682</v>
+        <v>47.16062625453683</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.49012359028568</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>117.8309988535884</v>
       </c>
       <c r="U11" t="n">
-        <v>25.62078142672602</v>
+        <v>94.80503351168693</v>
       </c>
       <c r="V11" t="n">
         <v>231.8413427655141</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>68.93036490673238</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>35.68211204218609</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>25.36552731156818</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.10960200584134</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S12" t="n">
         <v>145.5589030715301</v>
       </c>
       <c r="T12" t="n">
-        <v>151.5119451093457</v>
+        <v>185.5586142282266</v>
       </c>
       <c r="U12" t="n">
         <v>216.2896109863653</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66505460398372</v>
+        <v>34.66505460398373</v>
       </c>
       <c r="S13" t="n">
         <v>105.311099158971</v>
@@ -1607,25 +1607,25 @@
         <v>288.334965525335</v>
       </c>
       <c r="C14" t="n">
-        <v>276.3462824830167</v>
+        <v>276.3462824830168</v>
       </c>
       <c r="D14" t="n">
-        <v>262.8172756173506</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>289.0697240974503</v>
       </c>
       <c r="F14" t="n">
         <v>308.2415401854274</v>
       </c>
       <c r="G14" t="n">
-        <v>309.6000006915977</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H14" t="n">
-        <v>221.838176865498</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.16062625453684</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.49012359028563</v>
+        <v>70.49012359028569</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.5223597343417</v>
+        <v>11.1091635927866</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>276.4417004762176</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="15">
@@ -1695,13 +1695,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>43.42339461520938</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>127.1336659090721</v>
       </c>
       <c r="H15" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.79076447402609</v>
+        <v>145.5589030715301</v>
       </c>
       <c r="T15" t="n">
-        <v>185.5586142282266</v>
+        <v>89.83521253111557</v>
       </c>
       <c r="U15" t="n">
         <v>216.2896109863653</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.95167640003203</v>
+        <v>79.95167640003208</v>
       </c>
       <c r="C16" t="n">
-        <v>66.15167124543251</v>
+        <v>66.15167124543257</v>
       </c>
       <c r="D16" t="n">
-        <v>49.7730356430109</v>
+        <v>49.77303564301096</v>
       </c>
       <c r="E16" t="n">
-        <v>48.72078549879035</v>
+        <v>48.72078549879041</v>
       </c>
       <c r="F16" t="n">
-        <v>49.18770982697666</v>
+        <v>49.18770982697671</v>
       </c>
       <c r="G16" t="n">
-        <v>65.20457374105992</v>
+        <v>65.20457374105997</v>
       </c>
       <c r="H16" t="n">
-        <v>53.71835877551718</v>
+        <v>53.71835877551724</v>
       </c>
       <c r="I16" t="n">
-        <v>33.23895922465152</v>
+        <v>33.23895922465158</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66505460398368</v>
+        <v>34.66505460398373</v>
       </c>
       <c r="S16" t="n">
-        <v>105.3110991589709</v>
+        <v>105.311099158971</v>
       </c>
       <c r="T16" t="n">
-        <v>127.9773501512071</v>
+        <v>127.9773501512072</v>
       </c>
       <c r="U16" t="n">
-        <v>182.5361345833454</v>
+        <v>182.5361345833455</v>
       </c>
       <c r="V16" t="n">
-        <v>156.3598127996576</v>
+        <v>156.3598127996577</v>
       </c>
       <c r="W16" t="n">
         <v>181.5266988702709</v>
       </c>
       <c r="X16" t="n">
-        <v>127.171800866074</v>
+        <v>127.1718008660741</v>
       </c>
       <c r="Y16" t="n">
         <v>118.0466686221417</v>
@@ -1856,7 +1856,7 @@
         <v>222.2613868352468</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6198473414171</v>
+        <v>223.6198473414172</v>
       </c>
       <c r="H17" t="n">
         <v>135.8580235153175</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>31.85084550340783</v>
+        <v>31.85084550340784</v>
       </c>
       <c r="U17" t="n">
-        <v>64.54220638416119</v>
+        <v>64.5422063841612</v>
       </c>
       <c r="V17" t="n">
         <v>145.8611894153335</v>
@@ -1938,10 +1938,10 @@
         <v>127.1336659090721</v>
       </c>
       <c r="H18" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>57.10960200584133</v>
+        <v>49.83550137441854</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>82.3163112419969</v>
+        <v>185.5586142282266</v>
       </c>
       <c r="U18" t="n">
         <v>216.2896109863653</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>96.55598123316489</v>
       </c>
       <c r="V19" t="n">
-        <v>70.37965944947709</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>95.54654552009035</v>
+        <v>248.9664771702982</v>
       </c>
       <c r="X19" t="n">
         <v>41.19164751589346</v>
       </c>
       <c r="Y19" t="n">
-        <v>39.97374963180277</v>
+        <v>32.06651527196115</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>222.2613868352468</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6198473414171</v>
+        <v>223.6198473414172</v>
       </c>
       <c r="H20" t="n">
         <v>135.8580235153175</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>31.85084550340783</v>
+        <v>31.85084550340784</v>
       </c>
       <c r="U20" t="n">
-        <v>64.54220638416119</v>
+        <v>64.5422063841612</v>
       </c>
       <c r="V20" t="n">
         <v>145.8611894153335</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.09140601927352</v>
+        <v>31.41026421196088</v>
       </c>
       <c r="S21" t="n">
         <v>145.5589030715301</v>
       </c>
       <c r="T21" t="n">
-        <v>176.8774724209148</v>
+        <v>185.5586142282266</v>
       </c>
       <c r="U21" t="n">
         <v>216.2896109863653</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>7.907234359841596</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>16.56148380817546</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.3309458087904</v>
+        <v>207.0792377564749</v>
       </c>
       <c r="T22" t="n">
-        <v>41.99719680102662</v>
+        <v>178.855644643059</v>
       </c>
       <c r="U22" t="n">
         <v>96.55598123316489</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>25.98934577972409</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>57.10960200584134</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S24" t="n">
         <v>145.5589030715301</v>
       </c>
       <c r="T24" t="n">
-        <v>176.8774724209139</v>
+        <v>185.5586142282266</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2896109863653</v>
+        <v>28.54131903868076</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.248413754956</v>
+        <v>153.4199316502079</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.3309458087904</v>
+        <v>207.0792377564749</v>
       </c>
       <c r="T25" t="n">
         <v>41.99719680102662</v>
@@ -2573,7 +2573,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I26" t="n">
-        <v>47.16062625453687</v>
+        <v>47.16062625453685</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I27" t="n">
-        <v>57.10960200584133</v>
+        <v>57.10960200584134</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S27" t="n">
         <v>145.5589030715301</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.9516764000321</v>
+        <v>79.95167640003208</v>
       </c>
       <c r="C28" t="n">
-        <v>66.15167124543258</v>
+        <v>66.15167124543257</v>
       </c>
       <c r="D28" t="n">
-        <v>49.77303564301097</v>
+        <v>49.77303564301096</v>
       </c>
       <c r="E28" t="n">
-        <v>48.72078549879042</v>
+        <v>48.72078549879041</v>
       </c>
       <c r="F28" t="n">
-        <v>49.18770982697673</v>
+        <v>49.18770982697671</v>
       </c>
       <c r="G28" t="n">
-        <v>65.20457374106</v>
+        <v>65.20457374105997</v>
       </c>
       <c r="H28" t="n">
-        <v>53.71835877551725</v>
+        <v>53.71835877551724</v>
       </c>
       <c r="I28" t="n">
-        <v>33.23895922465159</v>
+        <v>33.23895922465158</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66505460398376</v>
+        <v>34.66505460398374</v>
       </c>
       <c r="S28" t="n">
         <v>105.311099158971</v>
@@ -2779,7 +2779,7 @@
         <v>127.1718008660741</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.0466686221418</v>
+        <v>118.0466686221417</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>288.3349655253351</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C29" t="n">
         <v>276.3462824830168</v>
       </c>
       <c r="D29" t="n">
-        <v>267.3275865275448</v>
+        <v>267.3275865275447</v>
       </c>
       <c r="E29" t="n">
         <v>289.0697240974503</v>
       </c>
       <c r="F29" t="n">
-        <v>308.2415401854275</v>
+        <v>308.2415401854274</v>
       </c>
       <c r="G29" t="n">
         <v>309.6000006915978</v>
       </c>
       <c r="H29" t="n">
-        <v>221.8381768654982</v>
+        <v>221.8381768654981</v>
       </c>
       <c r="I29" t="n">
-        <v>47.16062625453691</v>
+        <v>47.16062625453684</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.49012359028575</v>
+        <v>70.49012359028568</v>
       </c>
       <c r="T29" t="n">
-        <v>117.8309988535885</v>
+        <v>117.8309988535884</v>
       </c>
       <c r="U29" t="n">
         <v>150.5223597343418</v>
       </c>
       <c r="V29" t="n">
-        <v>231.8413427655142</v>
+        <v>231.8413427655141</v>
       </c>
       <c r="W29" t="n">
-        <v>257.1414422434711</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X29" t="n">
-        <v>276.4417004762177</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.8382982724165</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S30" t="n">
         <v>145.5589030715301</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.95167640003214</v>
+        <v>79.95167640003207</v>
       </c>
       <c r="C31" t="n">
-        <v>66.15167124543262</v>
+        <v>66.15167124543255</v>
       </c>
       <c r="D31" t="n">
-        <v>49.77303564301101</v>
+        <v>49.77303564301094</v>
       </c>
       <c r="E31" t="n">
-        <v>48.72078549879046</v>
+        <v>48.72078549879039</v>
       </c>
       <c r="F31" t="n">
-        <v>49.18770982697677</v>
+        <v>49.1877098269767</v>
       </c>
       <c r="G31" t="n">
-        <v>65.20457374106003</v>
+        <v>65.20457374105997</v>
       </c>
       <c r="H31" t="n">
-        <v>53.7183587755173</v>
+        <v>53.71835877551722</v>
       </c>
       <c r="I31" t="n">
-        <v>33.23895922465164</v>
+        <v>33.23895922465157</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66505460398379</v>
+        <v>34.66505460398373</v>
       </c>
       <c r="S31" t="n">
         <v>105.311099158971</v>
       </c>
       <c r="T31" t="n">
-        <v>127.9773501512073</v>
+        <v>127.9773501512072</v>
       </c>
       <c r="U31" t="n">
         <v>182.5361345833455</v>
@@ -3010,13 +3010,13 @@
         <v>156.3598127996577</v>
       </c>
       <c r="W31" t="n">
-        <v>181.526698870271</v>
+        <v>181.5266988702709</v>
       </c>
       <c r="X31" t="n">
-        <v>127.1718008660741</v>
+        <v>127.171800866074</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.0466686221418</v>
+        <v>118.0466686221417</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I32" t="n">
-        <v>47.16062625453687</v>
+        <v>47.16062625453685</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.49012359028571</v>
+        <v>70.49012359028569</v>
       </c>
       <c r="T32" t="n">
         <v>117.8309988535884</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S33" t="n">
         <v>145.5589030715301</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.9516764000321</v>
+        <v>79.95167640003208</v>
       </c>
       <c r="C34" t="n">
-        <v>66.15167124543258</v>
+        <v>66.15167124543257</v>
       </c>
       <c r="D34" t="n">
-        <v>49.77303564301097</v>
+        <v>49.77303564301096</v>
       </c>
       <c r="E34" t="n">
-        <v>48.72078549879042</v>
+        <v>48.72078549879041</v>
       </c>
       <c r="F34" t="n">
-        <v>49.18770982697673</v>
+        <v>49.18770982697671</v>
       </c>
       <c r="G34" t="n">
-        <v>65.20457374106</v>
+        <v>65.20457374105999</v>
       </c>
       <c r="H34" t="n">
-        <v>53.71835877551725</v>
+        <v>53.71835877551723</v>
       </c>
       <c r="I34" t="n">
-        <v>33.23895922465159</v>
+        <v>33.23895922465158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66505460398376</v>
+        <v>34.66505460398375</v>
       </c>
       <c r="S34" t="n">
         <v>105.311099158971</v>
@@ -3253,7 +3253,7 @@
         <v>127.1718008660741</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.0466686221418</v>
+        <v>118.0466686221417</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C35" t="n">
         <v>212.1077464069024</v>
@@ -3281,7 +3281,7 @@
         <v>245.3614646154834</v>
       </c>
       <c r="H35" t="n">
-        <v>157.5996407893837</v>
+        <v>157.5996407893838</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.25158751417132</v>
+        <v>6.251587514171376</v>
       </c>
       <c r="T35" t="n">
-        <v>53.59246277747405</v>
+        <v>53.59246277747411</v>
       </c>
       <c r="U35" t="n">
-        <v>86.28382365822742</v>
+        <v>86.28382365822748</v>
       </c>
       <c r="V35" t="n">
         <v>167.6028066893998</v>
@@ -3332,7 +3332,7 @@
         <v>212.2031644001033</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S36" t="n">
         <v>145.5589030715301</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.71314032391771</v>
+        <v>15.71314032391777</v>
       </c>
       <c r="C37" t="n">
-        <v>1.913135169318195</v>
+        <v>1.913135169318252</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9660376649456081</v>
+        <v>0.966037664945665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.07256308285662</v>
+        <v>207.0792377564749</v>
       </c>
       <c r="T37" t="n">
-        <v>63.73881407509283</v>
+        <v>68.11672892272165</v>
       </c>
       <c r="U37" t="n">
-        <v>118.2975985072311</v>
+        <v>118.2975985072312</v>
       </c>
       <c r="V37" t="n">
-        <v>92.1212767235433</v>
+        <v>92.12127672354336</v>
       </c>
       <c r="W37" t="n">
         <v>117.2881627941566</v>
       </c>
       <c r="X37" t="n">
-        <v>62.93326478995968</v>
+        <v>62.93326478995974</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.7037979709806</v>
+        <v>53.80813254602742</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C38" t="n">
         <v>212.1077464069024</v>
@@ -3518,7 +3518,7 @@
         <v>245.3614646154834</v>
       </c>
       <c r="H38" t="n">
-        <v>157.5996407893837</v>
+        <v>157.5996407893838</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.25158751417132</v>
+        <v>6.251587514171348</v>
       </c>
       <c r="T38" t="n">
-        <v>53.59246277747405</v>
+        <v>53.59246277747408</v>
       </c>
       <c r="U38" t="n">
-        <v>86.28382365822742</v>
+        <v>86.28382365822745</v>
       </c>
       <c r="V38" t="n">
         <v>167.6028066893998</v>
@@ -3569,7 +3569,7 @@
         <v>212.2031644001033</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S39" t="n">
         <v>145.5589030715301</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.71314032391771</v>
+        <v>15.71314032391774</v>
       </c>
       <c r="C40" t="n">
-        <v>1.913135169318195</v>
+        <v>1.913135169318224</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9660376649456081</v>
+        <v>0.9660376649456366</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>155.4864973730212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>207.0792377564749</v>
+        <v>55.97065523108284</v>
       </c>
       <c r="T40" t="n">
-        <v>63.73881407509283</v>
+        <v>63.73881407509286</v>
       </c>
       <c r="U40" t="n">
-        <v>122.6755133548604</v>
+        <v>118.2975985072311</v>
       </c>
       <c r="V40" t="n">
-        <v>92.1212767235433</v>
+        <v>92.12127672354333</v>
       </c>
       <c r="W40" t="n">
         <v>117.2881627941566</v>
       </c>
       <c r="X40" t="n">
-        <v>62.93326478995968</v>
+        <v>62.93326478995971</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.80813254602737</v>
+        <v>53.80813254602739</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C41" t="n">
         <v>212.1077464069024</v>
       </c>
       <c r="D41" t="n">
-        <v>203.0890504514303</v>
+        <v>203.0890504514304</v>
       </c>
       <c r="E41" t="n">
         <v>224.8311880213359</v>
       </c>
       <c r="F41" t="n">
-        <v>244.003004109313</v>
+        <v>244.0030041093131</v>
       </c>
       <c r="G41" t="n">
-        <v>245.3614646154833</v>
+        <v>245.3614646154834</v>
       </c>
       <c r="H41" t="n">
-        <v>157.5996407893837</v>
+        <v>157.5996407893838</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.251587514171298</v>
+        <v>6.251587514171376</v>
       </c>
       <c r="T41" t="n">
-        <v>53.59246277747401</v>
+        <v>53.59246277747411</v>
       </c>
       <c r="U41" t="n">
-        <v>86.28382365822739</v>
+        <v>86.28382365822748</v>
       </c>
       <c r="V41" t="n">
-        <v>167.6028066893997</v>
+        <v>167.6028066893998</v>
       </c>
       <c r="W41" t="n">
-        <v>192.9029061673566</v>
+        <v>192.9029061673567</v>
       </c>
       <c r="X41" t="n">
-        <v>212.2031644001032</v>
+        <v>212.2031644001033</v>
       </c>
       <c r="Y41" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S42" t="n">
         <v>145.5589030715301</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.71314032391768</v>
+        <v>15.71314032391777</v>
       </c>
       <c r="C43" t="n">
-        <v>1.913135169318167</v>
+        <v>1.913135169318252</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9727123385639</v>
+        <v>0.966037664945665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.45047793048612</v>
+        <v>207.0792377564749</v>
       </c>
       <c r="T43" t="n">
-        <v>63.7388140750928</v>
+        <v>68.11672892272165</v>
       </c>
       <c r="U43" t="n">
-        <v>118.2975985072311</v>
+        <v>118.2975985072312</v>
       </c>
       <c r="V43" t="n">
-        <v>92.12127672354328</v>
+        <v>92.12127672354336</v>
       </c>
       <c r="W43" t="n">
-        <v>117.2881627941565</v>
+        <v>117.2881627941566</v>
       </c>
       <c r="X43" t="n">
-        <v>62.93326478995965</v>
+        <v>62.93326478995974</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.80813254602734</v>
+        <v>53.80813254602742</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C44" t="n">
         <v>212.1077464069024</v>
       </c>
       <c r="D44" t="n">
-        <v>203.0890504514303</v>
+        <v>203.0890504514304</v>
       </c>
       <c r="E44" t="n">
         <v>224.8311880213359</v>
       </c>
       <c r="F44" t="n">
-        <v>244.003004109313</v>
+        <v>244.0030041093131</v>
       </c>
       <c r="G44" t="n">
         <v>245.3614646154834</v>
       </c>
       <c r="H44" t="n">
-        <v>157.5996407893837</v>
+        <v>157.5996407893838</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.251587514171291</v>
+        <v>6.251587514171376</v>
       </c>
       <c r="T44" t="n">
-        <v>53.59246277747403</v>
+        <v>53.59246277747411</v>
       </c>
       <c r="U44" t="n">
-        <v>86.28382365822739</v>
+        <v>86.28382365822748</v>
       </c>
       <c r="V44" t="n">
-        <v>167.6028066893997</v>
+        <v>167.6028066893998</v>
       </c>
       <c r="W44" t="n">
-        <v>192.9029061673566</v>
+        <v>192.9029061673567</v>
       </c>
       <c r="X44" t="n">
-        <v>212.2031644001032</v>
+        <v>212.2031644001033</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S45" t="n">
         <v>145.5589030715301</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.71314032391768</v>
+        <v>15.71314032391777</v>
       </c>
       <c r="C46" t="n">
-        <v>1.913135169318167</v>
+        <v>1.913135169318252</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9660376649455796</v>
+        <v>5.343952512574504</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>41.07256308285659</v>
+        <v>41.07256308285668</v>
       </c>
       <c r="T46" t="n">
-        <v>229.7454887487112</v>
+        <v>63.73881407509289</v>
       </c>
       <c r="U46" t="n">
-        <v>122.6755133548605</v>
+        <v>118.2975985072312</v>
       </c>
       <c r="V46" t="n">
-        <v>92.12127672354328</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>117.2881627941565</v>
+        <v>117.2881627941566</v>
       </c>
       <c r="X46" t="n">
-        <v>62.93326478995965</v>
+        <v>62.93326478995974</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.80813254602734</v>
+        <v>53.80813254602742</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1489.586247424088</v>
+        <v>940.4207231709942</v>
       </c>
       <c r="C11" t="n">
-        <v>1210.448588350334</v>
+        <v>940.4207231709942</v>
       </c>
       <c r="D11" t="n">
-        <v>940.420723170996</v>
+        <v>940.4207231709942</v>
       </c>
       <c r="E11" t="n">
-        <v>940.420723170996</v>
+        <v>940.4207231709942</v>
       </c>
       <c r="F11" t="n">
-        <v>629.0656320746047</v>
+        <v>629.0656320746028</v>
       </c>
       <c r="G11" t="n">
         <v>316.3383586487483</v>
@@ -5045,19 +5045,19 @@
         <v>357.1492470840705</v>
       </c>
       <c r="L11" t="n">
-        <v>794.8364483901009</v>
+        <v>391.3314834412677</v>
       </c>
       <c r="M11" t="n">
-        <v>1287.997451499013</v>
+        <v>884.4924865501796</v>
       </c>
       <c r="N11" t="n">
-        <v>1767.867486827944</v>
+        <v>1364.362521879111</v>
       </c>
       <c r="O11" t="n">
-        <v>2168.752164355197</v>
+        <v>1765.247199406364</v>
       </c>
       <c r="P11" t="n">
-        <v>2231.119795061916</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="Q11" t="n">
         <v>2231.119795061916</v>
@@ -5066,25 +5066,25 @@
         <v>2231.119795061916</v>
       </c>
       <c r="S11" t="n">
-        <v>2159.917650021223</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="T11" t="n">
-        <v>2040.896439058003</v>
+        <v>2112.098584098695</v>
       </c>
       <c r="U11" t="n">
-        <v>2015.01686185929</v>
+        <v>2016.33592398588</v>
       </c>
       <c r="V11" t="n">
-        <v>1780.833687348669</v>
+        <v>1782.152749475259</v>
       </c>
       <c r="W11" t="n">
-        <v>1780.833687348669</v>
+        <v>1522.413918926299</v>
       </c>
       <c r="X11" t="n">
-        <v>1780.833687348669</v>
+        <v>1522.413918926299</v>
       </c>
       <c r="Y11" t="n">
-        <v>1780.833687348669</v>
+        <v>1231.668163095575</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>652.5082584224857</v>
+        <v>618.117683554929</v>
       </c>
       <c r="C12" t="n">
-        <v>490.8045856634404</v>
+        <v>548.4910523360074</v>
       </c>
       <c r="D12" t="n">
-        <v>351.9659486536525</v>
+        <v>512.4485149196579</v>
       </c>
       <c r="E12" t="n">
-        <v>204.9379387105238</v>
+        <v>365.4205049765291</v>
       </c>
       <c r="F12" t="n">
-        <v>70.2441406603981</v>
+        <v>230.7267069264035</v>
       </c>
       <c r="G12" t="n">
-        <v>44.62239590123831</v>
+        <v>102.3088625738053</v>
       </c>
       <c r="H12" t="n">
-        <v>44.62239590123831</v>
+        <v>102.3088625738053</v>
       </c>
       <c r="I12" t="n">
         <v>44.62239590123831</v>
       </c>
       <c r="J12" t="n">
-        <v>133.6426184273641</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="K12" t="n">
-        <v>412.298976652796</v>
+        <v>323.2787541266702</v>
       </c>
       <c r="L12" t="n">
-        <v>844.2303149771031</v>
+        <v>755.2100924509773</v>
       </c>
       <c r="M12" t="n">
-        <v>844.2303149771031</v>
+        <v>1307.412241728801</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.603401633154</v>
+        <v>1307.412241728801</v>
       </c>
       <c r="O12" t="n">
-        <v>1674.245361813031</v>
+        <v>1772.054201908678</v>
       </c>
       <c r="P12" t="n">
         <v>2034.482380229163</v>
@@ -5148,22 +5148,22 @@
         <v>2043.59423032373</v>
       </c>
       <c r="T12" t="n">
-        <v>1890.551861526411</v>
+        <v>1856.161286658855</v>
       </c>
       <c r="U12" t="n">
-        <v>1672.077506994729</v>
+        <v>1637.686932127173</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.681884443063</v>
+        <v>1409.291309575507</v>
       </c>
       <c r="W12" t="n">
-        <v>1202.366015676373</v>
+        <v>1167.975440808817</v>
       </c>
       <c r="X12" t="n">
-        <v>1004.449027554168</v>
+        <v>970.0584526866111</v>
       </c>
       <c r="Y12" t="n">
-        <v>811.9277012037467</v>
+        <v>777.5371263361899</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.3144099976421</v>
+        <v>414.3144099976417</v>
       </c>
       <c r="C13" t="n">
-        <v>347.4945400527608</v>
+        <v>347.4945400527603</v>
       </c>
       <c r="D13" t="n">
-        <v>297.2187464739619</v>
+        <v>297.2187464739614</v>
       </c>
       <c r="E13" t="n">
-        <v>248.005831828719</v>
+        <v>248.0058318287186</v>
       </c>
       <c r="F13" t="n">
-        <v>198.3212764479345</v>
+        <v>198.321276447934</v>
       </c>
       <c r="G13" t="n">
-        <v>132.458070648884</v>
+        <v>132.4580706488836</v>
       </c>
       <c r="H13" t="n">
         <v>78.19710218876514</v>
@@ -5197,52 +5197,52 @@
         <v>44.62239590123831</v>
       </c>
       <c r="J13" t="n">
-        <v>104.5576652116671</v>
+        <v>104.5576652116665</v>
       </c>
       <c r="K13" t="n">
-        <v>268.5689297794103</v>
+        <v>268.5689297794098</v>
       </c>
       <c r="L13" t="n">
-        <v>507.8767290772415</v>
+        <v>507.8767290772414</v>
       </c>
       <c r="M13" t="n">
-        <v>766.6339233993392</v>
+        <v>766.633923399339</v>
       </c>
       <c r="N13" t="n">
         <v>1024.868528144629</v>
       </c>
       <c r="O13" t="n">
-        <v>1260.162531829994</v>
+        <v>1260.162531829993</v>
       </c>
       <c r="P13" t="n">
         <v>1454.754060196291</v>
       </c>
       <c r="Q13" t="n">
-        <v>1539.108648437727</v>
+        <v>1539.108648437726</v>
       </c>
       <c r="R13" t="n">
         <v>1504.093441767036</v>
       </c>
       <c r="S13" t="n">
-        <v>1397.718594131712</v>
+        <v>1397.718594131711</v>
       </c>
       <c r="T13" t="n">
-        <v>1268.448543473927</v>
+        <v>1268.448543473926</v>
       </c>
       <c r="U13" t="n">
-        <v>1084.068609551356</v>
+        <v>1084.068609551355</v>
       </c>
       <c r="V13" t="n">
-        <v>926.1294047032166</v>
+        <v>926.1294047032162</v>
       </c>
       <c r="W13" t="n">
-        <v>742.769102814054</v>
+        <v>742.7691028140537</v>
       </c>
       <c r="X13" t="n">
-        <v>614.3127383028682</v>
+        <v>614.3127383028677</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.0736790885836</v>
+        <v>495.0736790885832</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1437.393381601128</v>
+        <v>1287.469036014399</v>
       </c>
       <c r="C14" t="n">
-        <v>1158.255722527374</v>
+        <v>1008.331376940645</v>
       </c>
       <c r="D14" t="n">
-        <v>892.783726954292</v>
+        <v>1008.331376940645</v>
       </c>
       <c r="E14" t="n">
-        <v>892.783726954292</v>
+        <v>716.3417566401899</v>
       </c>
       <c r="F14" t="n">
-        <v>581.4286358579006</v>
+        <v>404.9866655437986</v>
       </c>
       <c r="G14" t="n">
-        <v>268.7013624320444</v>
+        <v>92.25939211794218</v>
       </c>
       <c r="H14" t="n">
-        <v>44.62239590123831</v>
+        <v>92.25939211794218</v>
       </c>
       <c r="I14" t="n">
         <v>44.62239590123831</v>
@@ -5279,22 +5279,22 @@
         <v>44.62239590123831</v>
       </c>
       <c r="K14" t="n">
-        <v>44.62239590123831</v>
+        <v>357.1492470840705</v>
       </c>
       <c r="L14" t="n">
-        <v>482.3095972072687</v>
+        <v>391.3314834412674</v>
       </c>
       <c r="M14" t="n">
-        <v>975.4706003161807</v>
+        <v>884.4924865501794</v>
       </c>
       <c r="N14" t="n">
-        <v>1455.340635645112</v>
+        <v>1364.362521879111</v>
       </c>
       <c r="O14" t="n">
-        <v>1856.225313172365</v>
+        <v>1765.247199406363</v>
       </c>
       <c r="P14" t="n">
-        <v>2166.213650786013</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="Q14" t="n">
         <v>2231.119795061916</v>
@@ -5309,19 +5309,19 @@
         <v>2159.917650021223</v>
       </c>
       <c r="U14" t="n">
-        <v>2007.874862410777</v>
+        <v>2148.696272654772</v>
       </c>
       <c r="V14" t="n">
-        <v>2007.874862410777</v>
+        <v>2148.696272654772</v>
       </c>
       <c r="W14" t="n">
-        <v>2007.874862410777</v>
+        <v>2148.696272654772</v>
       </c>
       <c r="X14" t="n">
-        <v>1728.640821525709</v>
+        <v>1869.462231769704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1728.640821525709</v>
+        <v>1578.71647593898</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.4101528648052</v>
+        <v>755.3043580159241</v>
       </c>
       <c r="C15" t="n">
-        <v>599.70648010576</v>
+        <v>593.6006852568788</v>
       </c>
       <c r="D15" t="n">
-        <v>460.867843095972</v>
+        <v>454.7620482470909</v>
       </c>
       <c r="E15" t="n">
-        <v>313.8398331528433</v>
+        <v>307.7340383039621</v>
       </c>
       <c r="F15" t="n">
-        <v>269.9778183900055</v>
+        <v>173.0402402538365</v>
       </c>
       <c r="G15" t="n">
-        <v>141.5599740374074</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="H15" t="n">
         <v>44.62239590123831</v>
@@ -5355,25 +5355,25 @@
         <v>44.62239590123831</v>
       </c>
       <c r="J15" t="n">
-        <v>133.6426184273641</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="K15" t="n">
-        <v>412.298976652796</v>
+        <v>323.2787541266702</v>
       </c>
       <c r="L15" t="n">
-        <v>844.2303149771031</v>
+        <v>755.2100924509773</v>
       </c>
       <c r="M15" t="n">
-        <v>854.0386671880832</v>
+        <v>1307.412241728801</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.240816465907</v>
+        <v>1307.412241728801</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.882776645784</v>
+        <v>1772.054201908678</v>
       </c>
       <c r="P15" t="n">
-        <v>2231.119795061916</v>
+        <v>2132.29122032481</v>
       </c>
       <c r="Q15" t="n">
         <v>2231.119795061916</v>
@@ -5382,25 +5382,25 @@
         <v>2231.119795061916</v>
       </c>
       <c r="S15" t="n">
-        <v>2186.886699633606</v>
+        <v>2084.090600040168</v>
       </c>
       <c r="T15" t="n">
-        <v>1999.453755968731</v>
+        <v>1993.34796111985</v>
       </c>
       <c r="U15" t="n">
-        <v>1780.979401437049</v>
+        <v>1774.873606588167</v>
       </c>
       <c r="V15" t="n">
-        <v>1552.583778885383</v>
+        <v>1546.477984036501</v>
       </c>
       <c r="W15" t="n">
-        <v>1311.267910118693</v>
+        <v>1305.162115269811</v>
       </c>
       <c r="X15" t="n">
-        <v>1113.350921996487</v>
+        <v>1107.245127147606</v>
       </c>
       <c r="Y15" t="n">
-        <v>920.8295956460662</v>
+        <v>914.723800797185</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.3144099976414</v>
+        <v>414.314409997642</v>
       </c>
       <c r="C16" t="n">
-        <v>347.49454005276</v>
+        <v>347.4945400527606</v>
       </c>
       <c r="D16" t="n">
-        <v>297.2187464739612</v>
+        <v>297.2187464739616</v>
       </c>
       <c r="E16" t="n">
-        <v>248.0058318287184</v>
+        <v>248.0058318287188</v>
       </c>
       <c r="F16" t="n">
-        <v>198.3212764479339</v>
+        <v>198.3212764479342</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4580706488835</v>
+        <v>132.4580706488837</v>
       </c>
       <c r="H16" t="n">
-        <v>78.19710218876511</v>
+        <v>78.19710218876526</v>
       </c>
       <c r="I16" t="n">
         <v>44.62239590123831</v>
       </c>
       <c r="J16" t="n">
-        <v>104.5576652116671</v>
+        <v>104.557665211667</v>
       </c>
       <c r="K16" t="n">
-        <v>268.5689297794104</v>
+        <v>268.5689297794103</v>
       </c>
       <c r="L16" t="n">
-        <v>507.8767290772405</v>
+        <v>507.8767290772419</v>
       </c>
       <c r="M16" t="n">
-        <v>766.6339233993382</v>
+        <v>766.6339233993397</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.868528144628</v>
+        <v>1024.86852814463</v>
       </c>
       <c r="O16" t="n">
-        <v>1260.162531829993</v>
+        <v>1260.162531829994</v>
       </c>
       <c r="P16" t="n">
-        <v>1454.75406019629</v>
+        <v>1454.754060196291</v>
       </c>
       <c r="Q16" t="n">
-        <v>1539.108648437726</v>
+        <v>1539.108648437727</v>
       </c>
       <c r="R16" t="n">
-        <v>1504.093441767035</v>
+        <v>1504.093441767036</v>
       </c>
       <c r="S16" t="n">
-        <v>1397.718594131711</v>
+        <v>1397.718594131712</v>
       </c>
       <c r="T16" t="n">
-        <v>1268.448543473926</v>
+        <v>1268.448543473927</v>
       </c>
       <c r="U16" t="n">
-        <v>1084.068609551355</v>
+        <v>1084.068609551356</v>
       </c>
       <c r="V16" t="n">
-        <v>926.1294047032158</v>
+        <v>926.1294047032166</v>
       </c>
       <c r="W16" t="n">
-        <v>742.7691028140532</v>
+        <v>742.769102814054</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3127383028674</v>
+        <v>614.3127383028681</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.0736790885828</v>
+        <v>495.0736790885835</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>632.2378077113199</v>
       </c>
       <c r="F17" t="n">
-        <v>407.7313563625857</v>
+        <v>407.7313563625858</v>
       </c>
       <c r="G17" t="n">
         <v>181.8527226843873</v>
@@ -5516,22 +5516,22 @@
         <v>44.62239590123831</v>
       </c>
       <c r="K17" t="n">
-        <v>44.62239590123831</v>
+        <v>357.1492470840705</v>
       </c>
       <c r="L17" t="n">
-        <v>391.3314834412674</v>
+        <v>794.8364483901008</v>
       </c>
       <c r="M17" t="n">
-        <v>884.4924865501794</v>
+        <v>1287.997451499013</v>
       </c>
       <c r="N17" t="n">
-        <v>1364.362521879111</v>
+        <v>1767.867486827944</v>
       </c>
       <c r="O17" t="n">
-        <v>1765.247199406363</v>
+        <v>2168.752164355196</v>
       </c>
       <c r="P17" t="n">
-        <v>2075.235537020012</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="Q17" t="n">
         <v>2231.119795061916</v>
@@ -5543,7 +5543,7 @@
         <v>2231.119795061916</v>
       </c>
       <c r="T17" t="n">
-        <v>2198.947223846352</v>
+        <v>2198.947223846353</v>
       </c>
       <c r="U17" t="n">
         <v>2133.753075983564</v>
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>909.9284028246601</v>
+        <v>805.6432482931145</v>
       </c>
       <c r="C18" t="n">
-        <v>748.2247300656148</v>
+        <v>643.9395755340693</v>
       </c>
       <c r="D18" t="n">
-        <v>609.3860930558269</v>
+        <v>505.1009385242813</v>
       </c>
       <c r="E18" t="n">
-        <v>462.3580831126982</v>
+        <v>358.0729285811526</v>
       </c>
       <c r="F18" t="n">
-        <v>327.6642850625725</v>
+        <v>223.3791305310269</v>
       </c>
       <c r="G18" t="n">
-        <v>199.2464407099744</v>
+        <v>94.96128617842876</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3088625738053</v>
+        <v>94.96128617842876</v>
       </c>
       <c r="I18" t="n">
         <v>44.62239590123831</v>
       </c>
       <c r="J18" t="n">
-        <v>44.62239590123831</v>
+        <v>133.6426184273641</v>
       </c>
       <c r="K18" t="n">
-        <v>323.2787541266702</v>
+        <v>412.298976652796</v>
       </c>
       <c r="L18" t="n">
-        <v>755.2100924509773</v>
+        <v>844.230314977103</v>
       </c>
       <c r="M18" t="n">
-        <v>755.2100924509773</v>
+        <v>1209.603401633155</v>
       </c>
       <c r="N18" t="n">
         <v>1209.603401633155</v>
@@ -5622,22 +5622,22 @@
         <v>2231.119795061916</v>
       </c>
       <c r="T18" t="n">
-        <v>2147.972005928586</v>
+        <v>2043.68685139704</v>
       </c>
       <c r="U18" t="n">
-        <v>1929.497651396903</v>
+        <v>1825.212496865358</v>
       </c>
       <c r="V18" t="n">
-        <v>1701.102028845237</v>
+        <v>1596.816874313692</v>
       </c>
       <c r="W18" t="n">
-        <v>1459.786160078547</v>
+        <v>1355.501005547002</v>
       </c>
       <c r="X18" t="n">
-        <v>1261.869171956342</v>
+        <v>1157.584017424797</v>
       </c>
       <c r="Y18" t="n">
-        <v>1069.347845605921</v>
+        <v>965.0626910743755</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>197.6942890734756</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="C19" t="n">
-        <v>197.6942890734756</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="D19" t="n">
         <v>44.62239590123831</v>
@@ -5677,46 +5677,46 @@
         <v>107.8832032574527</v>
       </c>
       <c r="L19" t="n">
-        <v>246.4405453437554</v>
+        <v>246.4405453437553</v>
       </c>
       <c r="M19" t="n">
         <v>404.4472824543241</v>
       </c>
       <c r="N19" t="n">
-        <v>561.9314299880853</v>
+        <v>561.9314299880851</v>
       </c>
       <c r="O19" t="n">
-        <v>696.474976461921</v>
+        <v>696.4749764619207</v>
       </c>
       <c r="P19" t="n">
-        <v>790.3160476166894</v>
+        <v>790.3160476166892</v>
       </c>
       <c r="Q19" t="n">
-        <v>790.3160476166894</v>
+        <v>790.3160476166892</v>
       </c>
       <c r="R19" t="n">
-        <v>790.3160476166894</v>
+        <v>790.3160476166892</v>
       </c>
       <c r="S19" t="n">
-        <v>770.7898397290223</v>
+        <v>770.7898397290221</v>
       </c>
       <c r="T19" t="n">
-        <v>728.3684288188945</v>
+        <v>728.3684288188942</v>
       </c>
       <c r="U19" t="n">
-        <v>630.8371346439804</v>
+        <v>630.8371346439802</v>
       </c>
       <c r="V19" t="n">
-        <v>559.7465695434985</v>
+        <v>370.1018302024028</v>
       </c>
       <c r="W19" t="n">
-        <v>463.234907401993</v>
+        <v>118.6205401313945</v>
       </c>
       <c r="X19" t="n">
-        <v>421.6271826384643</v>
+        <v>77.01281536786574</v>
       </c>
       <c r="Y19" t="n">
-        <v>381.2496577578554</v>
+        <v>44.62239590123831</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1212.847033021897</v>
+        <v>1212.847033021896</v>
       </c>
       <c r="C20" t="n">
-        <v>1020.5580136958</v>
+        <v>1020.558013695798</v>
       </c>
       <c r="D20" t="n">
-        <v>837.3787882641187</v>
+        <v>837.3787882641175</v>
       </c>
       <c r="E20" t="n">
-        <v>632.237807711321</v>
+        <v>632.2378077113199</v>
       </c>
       <c r="F20" t="n">
-        <v>407.7313563625869</v>
+        <v>407.7313563625858</v>
       </c>
       <c r="G20" t="n">
         <v>181.8527226843873</v>
       </c>
       <c r="H20" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I20" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="J20" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="K20" t="n">
-        <v>357.1492470840706</v>
+        <v>357.1492470840705</v>
       </c>
       <c r="L20" t="n">
-        <v>794.8364483901009</v>
+        <v>794.8364483901008</v>
       </c>
       <c r="M20" t="n">
         <v>1287.997451499013</v>
       </c>
       <c r="N20" t="n">
-        <v>1364.362521879111</v>
+        <v>1767.867486827944</v>
       </c>
       <c r="O20" t="n">
-        <v>1765.247199406364</v>
+        <v>2168.752164355196</v>
       </c>
       <c r="P20" t="n">
-        <v>2075.235537020013</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="Q20" t="n">
-        <v>2231.119795061917</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R20" t="n">
-        <v>2231.119795061917</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="S20" t="n">
-        <v>2231.119795061917</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="T20" t="n">
-        <v>2198.947223846354</v>
+        <v>2198.947223846352</v>
       </c>
       <c r="U20" t="n">
-        <v>2133.753075983565</v>
+        <v>2133.753075983564</v>
       </c>
       <c r="V20" t="n">
-        <v>1986.418541220602</v>
+        <v>1986.4185412206</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.528350419298</v>
+        <v>1813.528350419297</v>
       </c>
       <c r="X20" t="n">
-        <v>1621.142949281887</v>
+        <v>1621.142949281886</v>
       </c>
       <c r="Y20" t="n">
-        <v>1417.24583319882</v>
+        <v>1417.245833198819</v>
       </c>
     </row>
     <row r="21">
@@ -5817,46 +5817,46 @@
         <v>179.316193951364</v>
       </c>
       <c r="F21" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="G21" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="H21" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I21" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="J21" t="n">
-        <v>133.6426184273641</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="K21" t="n">
-        <v>133.6426184273641</v>
+        <v>323.2787541266702</v>
       </c>
       <c r="L21" t="n">
-        <v>565.5739567516713</v>
+        <v>755.2100924509773</v>
       </c>
       <c r="M21" t="n">
-        <v>1117.776106029496</v>
+        <v>1307.412241728801</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.240816465908</v>
+        <v>1406.240816465907</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.882776645785</v>
+        <v>1870.882776645784</v>
       </c>
       <c r="P21" t="n">
-        <v>2231.119795061917</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="Q21" t="n">
-        <v>2231.119795061917</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R21" t="n">
-        <v>2190.623425345479</v>
+        <v>2199.392255453874</v>
       </c>
       <c r="S21" t="n">
-        <v>2043.594230323731</v>
+        <v>2052.363060432127</v>
       </c>
       <c r="T21" t="n">
         <v>1864.930116767252</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>205.681394487457</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="C22" t="n">
-        <v>205.681394487457</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="D22" t="n">
-        <v>52.60950131521975</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="E22" t="n">
-        <v>52.60950131521975</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="F22" t="n">
-        <v>52.60950131521975</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="G22" t="n">
-        <v>52.60950131521975</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="H22" t="n">
-        <v>52.60950131521975</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="I22" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="J22" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123831</v>
       </c>
       <c r="K22" t="n">
         <v>107.8832032574527</v>
       </c>
       <c r="L22" t="n">
-        <v>246.4405453437554</v>
+        <v>246.4405453437553</v>
       </c>
       <c r="M22" t="n">
         <v>404.4472824543241</v>
       </c>
       <c r="N22" t="n">
-        <v>561.9314299880853</v>
+        <v>561.9314299880851</v>
       </c>
       <c r="O22" t="n">
-        <v>696.474976461921</v>
+        <v>696.4749764619207</v>
       </c>
       <c r="P22" t="n">
-        <v>790.3160476166894</v>
+        <v>790.3160476166892</v>
       </c>
       <c r="Q22" t="n">
-        <v>790.3160476166894</v>
+        <v>773.5872760932796</v>
       </c>
       <c r="R22" t="n">
-        <v>790.3160476166894</v>
+        <v>773.5872760932796</v>
       </c>
       <c r="S22" t="n">
-        <v>770.7898397290223</v>
+        <v>564.416328864517</v>
       </c>
       <c r="T22" t="n">
-        <v>728.3684288188945</v>
+        <v>383.7540615482959</v>
       </c>
       <c r="U22" t="n">
-        <v>630.8371346439804</v>
+        <v>286.2227673733818</v>
       </c>
       <c r="V22" t="n">
-        <v>559.7465695434985</v>
+        <v>215.1322022728999</v>
       </c>
       <c r="W22" t="n">
-        <v>463.234907401993</v>
+        <v>118.6205401313945</v>
       </c>
       <c r="X22" t="n">
-        <v>421.6271826384643</v>
+        <v>77.01281536786574</v>
       </c>
       <c r="Y22" t="n">
-        <v>389.2367631718369</v>
+        <v>44.62239590123831</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1212.847033021896</v>
       </c>
       <c r="C23" t="n">
-        <v>1020.558013695798</v>
+        <v>1020.558013695799</v>
       </c>
       <c r="D23" t="n">
-        <v>837.3787882641177</v>
+        <v>837.3787882641182</v>
       </c>
       <c r="E23" t="n">
-        <v>632.2378077113199</v>
+        <v>632.2378077113203</v>
       </c>
       <c r="F23" t="n">
-        <v>407.7313563625858</v>
+        <v>407.7313563625862</v>
       </c>
       <c r="G23" t="n">
         <v>181.8527226843873</v>
       </c>
       <c r="H23" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="I23" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J23" t="n">
-        <v>164.9191384091041</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K23" t="n">
-        <v>477.4459895919363</v>
+        <v>109.5285401771423</v>
       </c>
       <c r="L23" t="n">
-        <v>915.1331908979666</v>
+        <v>547.2157414831727</v>
       </c>
       <c r="M23" t="n">
-        <v>1408.294194006879</v>
+        <v>1040.376744592085</v>
       </c>
       <c r="N23" t="n">
-        <v>1888.16422933581</v>
+        <v>1520.246779921016</v>
       </c>
       <c r="O23" t="n">
-        <v>1888.16422933581</v>
+        <v>1921.131457448269</v>
       </c>
       <c r="P23" t="n">
-        <v>2198.152566949458</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="Q23" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R23" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="S23" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="T23" t="n">
-        <v>2198.947223846352</v>
+        <v>2198.947223846354</v>
       </c>
       <c r="U23" t="n">
         <v>2133.753075983564</v>
       </c>
       <c r="V23" t="n">
-        <v>1986.4185412206</v>
+        <v>1986.418541220601</v>
       </c>
       <c r="W23" t="n">
-        <v>1813.528350419297</v>
+        <v>1813.528350419298</v>
       </c>
       <c r="X23" t="n">
-        <v>1621.142949281886</v>
+        <v>1621.142949281887</v>
       </c>
       <c r="Y23" t="n">
-        <v>1417.245833198819</v>
+        <v>1417.24583319882</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>626.886513663326</v>
+        <v>807.7624228960258</v>
       </c>
       <c r="C24" t="n">
-        <v>465.1828409042807</v>
+        <v>646.0587501369805</v>
       </c>
       <c r="D24" t="n">
-        <v>326.3442038944928</v>
+        <v>507.2201131271926</v>
       </c>
       <c r="E24" t="n">
-        <v>179.316193951364</v>
+        <v>360.1921031840638</v>
       </c>
       <c r="F24" t="n">
-        <v>44.62239590123831</v>
+        <v>225.4983051339381</v>
       </c>
       <c r="G24" t="n">
-        <v>44.62239590123831</v>
+        <v>199.2464407099744</v>
       </c>
       <c r="H24" t="n">
-        <v>44.62239590123831</v>
+        <v>102.3088625738054</v>
       </c>
       <c r="I24" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J24" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K24" t="n">
-        <v>323.2787541266702</v>
+        <v>323.2787541266703</v>
       </c>
       <c r="L24" t="n">
         <v>755.2100924509773</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.412241728801</v>
+        <v>1307.412241728802</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.412241728801</v>
+        <v>1406.240816465908</v>
       </c>
       <c r="O24" t="n">
-        <v>1772.054201908678</v>
+        <v>1870.882776645785</v>
       </c>
       <c r="P24" t="n">
-        <v>2132.29122032481</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="Q24" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R24" t="n">
-        <v>2190.623425345478</v>
+        <v>2190.623425345479</v>
       </c>
       <c r="S24" t="n">
-        <v>2043.59423032373</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T24" t="n">
-        <v>1864.930116767252</v>
+        <v>1856.161286658856</v>
       </c>
       <c r="U24" t="n">
-        <v>1646.455762235569</v>
+        <v>1827.331671468269</v>
       </c>
       <c r="V24" t="n">
-        <v>1418.060139683903</v>
+        <v>1598.936048916603</v>
       </c>
       <c r="W24" t="n">
-        <v>1176.744270917213</v>
+        <v>1357.620180149913</v>
       </c>
       <c r="X24" t="n">
-        <v>978.827282795008</v>
+        <v>1159.703192027708</v>
       </c>
       <c r="Y24" t="n">
-        <v>786.3059564445869</v>
+        <v>967.1818656772867</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>214.238365439558</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="C25" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="D25" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="E25" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="F25" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="G25" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="H25" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="I25" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J25" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K25" t="n">
         <v>107.8832032574527</v>
@@ -6157,40 +6157,40 @@
         <v>404.4472824543241</v>
       </c>
       <c r="N25" t="n">
-        <v>561.9314299880853</v>
+        <v>561.9314299880851</v>
       </c>
       <c r="O25" t="n">
-        <v>696.474976461921</v>
+        <v>696.4749764619207</v>
       </c>
       <c r="P25" t="n">
-        <v>790.3160476166894</v>
+        <v>790.3160476166892</v>
       </c>
       <c r="Q25" t="n">
-        <v>790.3160476166894</v>
+        <v>790.3160476166892</v>
       </c>
       <c r="R25" t="n">
-        <v>790.3160476166894</v>
+        <v>790.3160476166892</v>
       </c>
       <c r="S25" t="n">
-        <v>770.7898397290223</v>
+        <v>581.1451003879266</v>
       </c>
       <c r="T25" t="n">
-        <v>728.3684288188945</v>
+        <v>538.7236894777988</v>
       </c>
       <c r="U25" t="n">
-        <v>630.8371346439804</v>
+        <v>441.1923953028847</v>
       </c>
       <c r="V25" t="n">
-        <v>559.7465695434985</v>
+        <v>370.1018302024028</v>
       </c>
       <c r="W25" t="n">
-        <v>463.234907401993</v>
+        <v>273.5901680608974</v>
       </c>
       <c r="X25" t="n">
-        <v>421.6271826384643</v>
+        <v>231.9824432973687</v>
       </c>
       <c r="Y25" t="n">
-        <v>389.2367631718369</v>
+        <v>199.5920238307413</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1807.042632173052</v>
+        <v>1807.042632173053</v>
       </c>
       <c r="C26" t="n">
-        <v>1527.904973099298</v>
+        <v>1527.904973099299</v>
       </c>
       <c r="D26" t="n">
-        <v>1257.87710791996</v>
+        <v>1257.877107919961</v>
       </c>
       <c r="E26" t="n">
-        <v>965.887487619505</v>
+        <v>965.8874876195059</v>
       </c>
       <c r="F26" t="n">
-        <v>654.5323965231137</v>
+        <v>654.5323965231146</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8051230972574</v>
+        <v>341.8051230972578</v>
       </c>
       <c r="H26" t="n">
         <v>117.7261565664512</v>
@@ -6224,7 +6224,7 @@
         <v>70.08916034974733</v>
       </c>
       <c r="J26" t="n">
-        <v>291.136360069142</v>
+        <v>291.1363600691419</v>
       </c>
       <c r="K26" t="n">
         <v>704.413668463503</v>
@@ -6239,10 +6239,10 @@
         <v>2417.383279841963</v>
       </c>
       <c r="O26" t="n">
-        <v>2919.018414580745</v>
+        <v>2890.172919668631</v>
       </c>
       <c r="P26" t="n">
-        <v>3229.006752194393</v>
+        <v>3200.161257282279</v>
       </c>
       <c r="Q26" t="n">
         <v>3456.795972535712</v>
@@ -6257,19 +6257,19 @@
         <v>3314.234661483453</v>
       </c>
       <c r="U26" t="n">
-        <v>3162.191873873006</v>
+        <v>3162.191873873007</v>
       </c>
       <c r="V26" t="n">
-        <v>2928.008699362386</v>
+        <v>2928.008699362387</v>
       </c>
       <c r="W26" t="n">
         <v>2668.269868813426</v>
       </c>
       <c r="X26" t="n">
-        <v>2389.035827928357</v>
+        <v>2389.035827928358</v>
       </c>
       <c r="Y26" t="n">
-        <v>2098.290072097633</v>
+        <v>2098.290072097634</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6297,7 @@
         <v>224.7132051584834</v>
       </c>
       <c r="H27" t="n">
-        <v>127.7756270223143</v>
+        <v>127.7756270223144</v>
       </c>
       <c r="I27" t="n">
         <v>70.08916034974733</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>439.7811744461514</v>
+        <v>439.7811744461508</v>
       </c>
       <c r="C28" t="n">
-        <v>372.96130450127</v>
+        <v>372.9613045012694</v>
       </c>
       <c r="D28" t="n">
-        <v>322.685510922471</v>
+        <v>322.6855109224705</v>
       </c>
       <c r="E28" t="n">
-        <v>273.4725962772281</v>
+        <v>273.4725962772276</v>
       </c>
       <c r="F28" t="n">
-        <v>223.7880408964436</v>
+        <v>223.7880408964431</v>
       </c>
       <c r="G28" t="n">
-        <v>157.924835097393</v>
+        <v>157.9248350973926</v>
       </c>
       <c r="H28" t="n">
         <v>103.6638666372742</v>
@@ -6382,7 +6382,7 @@
         <v>70.08916034974733</v>
       </c>
       <c r="J28" t="n">
-        <v>130.0244296601761</v>
+        <v>130.024429660176</v>
       </c>
       <c r="K28" t="n">
         <v>294.0356942279193</v>
@@ -6391,7 +6391,7 @@
         <v>533.3434935257509</v>
       </c>
       <c r="M28" t="n">
-        <v>792.1006878478488</v>
+        <v>792.1006878478486</v>
       </c>
       <c r="N28" t="n">
         <v>1050.335292593139</v>
@@ -6400,16 +6400,16 @@
         <v>1285.629296278503</v>
       </c>
       <c r="P28" t="n">
-        <v>1480.220824644801</v>
+        <v>1480.2208246448</v>
       </c>
       <c r="Q28" t="n">
         <v>1564.575412886236</v>
       </c>
       <c r="R28" t="n">
-        <v>1529.560206215546</v>
+        <v>1529.560206215545</v>
       </c>
       <c r="S28" t="n">
-        <v>1423.185358580222</v>
+        <v>1423.185358580221</v>
       </c>
       <c r="T28" t="n">
         <v>1293.915307922436</v>
@@ -6418,16 +6418,16 @@
         <v>1109.535373999865</v>
       </c>
       <c r="V28" t="n">
-        <v>951.5961691517261</v>
+        <v>951.5961691517253</v>
       </c>
       <c r="W28" t="n">
-        <v>768.2358672625634</v>
+        <v>768.2358672625628</v>
       </c>
       <c r="X28" t="n">
-        <v>639.7795027513774</v>
+        <v>639.7795027513769</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.5404435370929</v>
+        <v>520.5404435370923</v>
       </c>
     </row>
     <row r="29">
@@ -6446,43 +6446,43 @@
         <v>1257.87710791996</v>
       </c>
       <c r="E29" t="n">
-        <v>965.8874876195048</v>
+        <v>965.8874876195051</v>
       </c>
       <c r="F29" t="n">
-        <v>654.5323965231133</v>
+        <v>654.5323965231137</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8051230972569</v>
+        <v>341.8051230972574</v>
       </c>
       <c r="H29" t="n">
-        <v>117.7261565664513</v>
+        <v>117.7261565664512</v>
       </c>
       <c r="I29" t="n">
         <v>70.08916034974733</v>
       </c>
       <c r="J29" t="n">
-        <v>190.3859028576131</v>
+        <v>291.136360069142</v>
       </c>
       <c r="K29" t="n">
-        <v>603.6632112519742</v>
+        <v>704.4136684635031</v>
       </c>
       <c r="L29" t="n">
-        <v>1113.255374857419</v>
+        <v>1242.851326981062</v>
       </c>
       <c r="M29" t="n">
-        <v>1707.16683517786</v>
+        <v>1836.762787301503</v>
       </c>
       <c r="N29" t="n">
-        <v>2287.78732771832</v>
+        <v>2417.383279841963</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.422462457102</v>
+        <v>2919.018414580745</v>
       </c>
       <c r="P29" t="n">
-        <v>3200.161257282279</v>
+        <v>3229.006752194393</v>
       </c>
       <c r="Q29" t="n">
-        <v>3456.795972535712</v>
+        <v>3485.641467447826</v>
       </c>
       <c r="R29" t="n">
         <v>3504.458017487366</v>
@@ -6494,13 +6494,13 @@
         <v>3314.234661483453</v>
       </c>
       <c r="U29" t="n">
-        <v>3162.191873873007</v>
+        <v>3162.191873873006</v>
       </c>
       <c r="V29" t="n">
-        <v>2928.008699362387</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W29" t="n">
-        <v>2668.269868813426</v>
+        <v>2668.269868813425</v>
       </c>
       <c r="X29" t="n">
         <v>2389.035827928357</v>
@@ -6543,22 +6543,22 @@
         <v>70.08916034974733</v>
       </c>
       <c r="K30" t="n">
-        <v>348.7455185751792</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="L30" t="n">
-        <v>780.6768568994864</v>
+        <v>502.0204986740544</v>
       </c>
       <c r="M30" t="n">
-        <v>1342.856870737309</v>
+        <v>1064.200512511877</v>
       </c>
       <c r="N30" t="n">
-        <v>1526.880885351395</v>
+        <v>1654.654661504414</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.522845531272</v>
+        <v>2119.296621684291</v>
       </c>
       <c r="P30" t="n">
-        <v>2351.759863947403</v>
+        <v>2479.533640100422</v>
       </c>
       <c r="Q30" t="n">
         <v>2548.397278780156</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.7811744461512</v>
+        <v>439.781174446151</v>
       </c>
       <c r="C31" t="n">
-        <v>372.9613045012698</v>
+        <v>372.9613045012696</v>
       </c>
       <c r="D31" t="n">
-        <v>322.6855109224708</v>
+        <v>322.6855109224707</v>
       </c>
       <c r="E31" t="n">
         <v>273.4725962772279</v>
@@ -6610,61 +6610,61 @@
         <v>223.7880408964433</v>
       </c>
       <c r="G31" t="n">
-        <v>157.9248350973927</v>
+        <v>157.9248350973928</v>
       </c>
       <c r="H31" t="n">
-        <v>103.6638666372742</v>
+        <v>103.6638666372744</v>
       </c>
       <c r="I31" t="n">
         <v>70.08916034974733</v>
       </c>
       <c r="J31" t="n">
-        <v>130.024429660176</v>
+        <v>130.0244296601761</v>
       </c>
       <c r="K31" t="n">
-        <v>294.0356942279192</v>
+        <v>294.0356942279193</v>
       </c>
       <c r="L31" t="n">
-        <v>533.3434935257507</v>
+        <v>533.3434935257509</v>
       </c>
       <c r="M31" t="n">
-        <v>792.1006878478482</v>
+        <v>792.1006878478488</v>
       </c>
       <c r="N31" t="n">
-        <v>1050.335292593138</v>
+        <v>1050.335292593139</v>
       </c>
       <c r="O31" t="n">
         <v>1285.629296278503</v>
       </c>
       <c r="P31" t="n">
-        <v>1480.2208246448</v>
+        <v>1480.220824644801</v>
       </c>
       <c r="Q31" t="n">
-        <v>1564.575412886237</v>
+        <v>1564.575412886236</v>
       </c>
       <c r="R31" t="n">
-        <v>1529.560206215546</v>
+        <v>1529.560206215545</v>
       </c>
       <c r="S31" t="n">
-        <v>1423.185358580222</v>
+        <v>1423.185358580221</v>
       </c>
       <c r="T31" t="n">
-        <v>1293.915307922437</v>
+        <v>1293.915307922436</v>
       </c>
       <c r="U31" t="n">
         <v>1109.535373999865</v>
       </c>
       <c r="V31" t="n">
-        <v>951.596169151726</v>
+        <v>951.5961691517257</v>
       </c>
       <c r="W31" t="n">
-        <v>768.2358672625634</v>
+        <v>768.2358672625631</v>
       </c>
       <c r="X31" t="n">
-        <v>639.7795027513774</v>
+        <v>639.7795027513773</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.5404435370928</v>
+        <v>520.5404435370925</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1257.87710791996</v>
       </c>
       <c r="E32" t="n">
-        <v>965.8874876195048</v>
+        <v>965.887487619505</v>
       </c>
       <c r="F32" t="n">
-        <v>654.5323965231134</v>
+        <v>654.5323965231137</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8051230972571</v>
+        <v>341.8051230972574</v>
       </c>
       <c r="H32" t="n">
         <v>117.7261565664512</v>
@@ -6704,19 +6704,19 @@
         <v>704.413668463503</v>
       </c>
       <c r="L32" t="n">
-        <v>1214.005832068948</v>
+        <v>1242.851326981062</v>
       </c>
       <c r="M32" t="n">
-        <v>1807.917292389389</v>
+        <v>1836.762787301503</v>
       </c>
       <c r="N32" t="n">
-        <v>2388.537784929849</v>
+        <v>2417.383279841963</v>
       </c>
       <c r="O32" t="n">
-        <v>2890.172919668631</v>
+        <v>2919.018414580745</v>
       </c>
       <c r="P32" t="n">
-        <v>3300.911714493808</v>
+        <v>3229.006752194393</v>
       </c>
       <c r="Q32" t="n">
         <v>3456.795972535712</v>
@@ -6725,7 +6725,7 @@
         <v>3504.458017487366</v>
       </c>
       <c r="S32" t="n">
-        <v>3433.255872446673</v>
+        <v>3433.255872446674</v>
       </c>
       <c r="T32" t="n">
         <v>3314.234661483453</v>
@@ -6734,13 +6734,13 @@
         <v>3162.191873873006</v>
       </c>
       <c r="V32" t="n">
-        <v>2928.008699362385</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W32" t="n">
         <v>2668.269868813425</v>
       </c>
       <c r="X32" t="n">
-        <v>2389.035827928356</v>
+        <v>2389.035827928357</v>
       </c>
       <c r="Y32" t="n">
         <v>2098.290072097633</v>
@@ -6777,25 +6777,25 @@
         <v>70.08916034974733</v>
       </c>
       <c r="J33" t="n">
-        <v>70.08916034974733</v>
+        <v>159.1093828758731</v>
       </c>
       <c r="K33" t="n">
-        <v>138.9527990294806</v>
+        <v>437.765741101305</v>
       </c>
       <c r="L33" t="n">
-        <v>570.8841373537878</v>
+        <v>869.6970794256122</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.06415119161</v>
+        <v>936.4267363588574</v>
       </c>
       <c r="N33" t="n">
-        <v>1723.518300184147</v>
+        <v>1526.880885351395</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.160260364024</v>
+        <v>1991.522845531272</v>
       </c>
       <c r="P33" t="n">
-        <v>2548.397278780156</v>
+        <v>2351.759863947403</v>
       </c>
       <c r="Q33" t="n">
         <v>2548.397278780156</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>439.7811744461514</v>
+        <v>439.781174446151</v>
       </c>
       <c r="C34" t="n">
-        <v>372.96130450127</v>
+        <v>372.9613045012696</v>
       </c>
       <c r="D34" t="n">
-        <v>322.685510922471</v>
+        <v>322.6855109224707</v>
       </c>
       <c r="E34" t="n">
-        <v>273.4725962772281</v>
+        <v>273.4725962772279</v>
       </c>
       <c r="F34" t="n">
-        <v>223.7880408964436</v>
+        <v>223.7880408964433</v>
       </c>
       <c r="G34" t="n">
-        <v>157.924835097393</v>
+        <v>157.9248350973928</v>
       </c>
       <c r="H34" t="n">
-        <v>103.6638666372742</v>
+        <v>103.6638666372744</v>
       </c>
       <c r="I34" t="n">
         <v>70.08916034974733</v>
       </c>
       <c r="J34" t="n">
-        <v>130.024429660176</v>
+        <v>130.0244296601761</v>
       </c>
       <c r="K34" t="n">
-        <v>294.0356942279193</v>
+        <v>294.0356942279195</v>
       </c>
       <c r="L34" t="n">
-        <v>533.3434935257509</v>
+        <v>533.3434935257511</v>
       </c>
       <c r="M34" t="n">
-        <v>792.1006878478488</v>
+        <v>792.1006878478487</v>
       </c>
       <c r="N34" t="n">
         <v>1050.335292593139</v>
@@ -6892,16 +6892,16 @@
         <v>1109.535373999865</v>
       </c>
       <c r="V34" t="n">
-        <v>951.5961691517261</v>
+        <v>951.5961691517257</v>
       </c>
       <c r="W34" t="n">
-        <v>768.2358672625636</v>
+        <v>768.2358672625631</v>
       </c>
       <c r="X34" t="n">
-        <v>639.7795027513774</v>
+        <v>639.7795027513771</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.5404435370929</v>
+        <v>520.5404435370925</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1136.319482346042</v>
       </c>
       <c r="D35" t="n">
-        <v>931.1790273445972</v>
+        <v>931.179027344597</v>
       </c>
       <c r="E35" t="n">
-        <v>704.0768172220356</v>
+        <v>704.0768172220354</v>
       </c>
       <c r="F35" t="n">
-        <v>457.6091363035375</v>
+        <v>457.6091363035373</v>
       </c>
       <c r="G35" t="n">
         <v>209.7692730555743</v>
@@ -6935,25 +6935,25 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J35" t="n">
-        <v>50.57771670266141</v>
+        <v>170.8744592105272</v>
       </c>
       <c r="K35" t="n">
-        <v>363.1045678854936</v>
+        <v>483.4013103933594</v>
       </c>
       <c r="L35" t="n">
-        <v>800.7917691915241</v>
+        <v>921.0885116993898</v>
       </c>
       <c r="M35" t="n">
-        <v>1293.952772300436</v>
+        <v>1414.249514808302</v>
       </c>
       <c r="N35" t="n">
-        <v>1773.822807629367</v>
+        <v>1894.119550137233</v>
       </c>
       <c r="O35" t="n">
-        <v>2174.70748515662</v>
+        <v>2295.004227664485</v>
       </c>
       <c r="P35" t="n">
-        <v>2484.695822770268</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="Q35" t="n">
         <v>2528.88583513307</v>
@@ -6965,10 +6965,10 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T35" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U35" t="n">
-        <v>2381.28192205239</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V35" t="n">
         <v>2211.986157719663</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.8837236260828</v>
+        <v>915.8837236260832</v>
       </c>
       <c r="C36" t="n">
-        <v>754.1800508670376</v>
+        <v>754.1800508670381</v>
       </c>
       <c r="D36" t="n">
-        <v>615.3414138572498</v>
+        <v>615.3414138572502</v>
       </c>
       <c r="E36" t="n">
-        <v>468.313403914121</v>
+        <v>468.3134039141214</v>
       </c>
       <c r="F36" t="n">
-        <v>333.6196058639953</v>
+        <v>333.6196058639957</v>
       </c>
       <c r="G36" t="n">
-        <v>205.2017615113973</v>
+        <v>205.2017615113975</v>
       </c>
       <c r="H36" t="n">
         <v>108.2641833752284</v>
@@ -7017,22 +7017,22 @@
         <v>139.5979392287872</v>
       </c>
       <c r="K36" t="n">
-        <v>139.5979392287872</v>
+        <v>418.2542974542191</v>
       </c>
       <c r="L36" t="n">
-        <v>571.5292775530943</v>
+        <v>850.1856357785261</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.709291390917</v>
+        <v>916.9152927117716</v>
       </c>
       <c r="N36" t="n">
-        <v>1724.163440383454</v>
+        <v>1507.369441704309</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.805400563331</v>
+        <v>1972.011401884186</v>
       </c>
       <c r="P36" t="n">
-        <v>2528.88583513307</v>
+        <v>2332.248420300317</v>
       </c>
       <c r="Q36" t="n">
         <v>2528.88583513307</v>
@@ -7041,7 +7041,7 @@
         <v>2488.389465416632</v>
       </c>
       <c r="S36" t="n">
-        <v>2341.360270394884</v>
+        <v>2341.360270394885</v>
       </c>
       <c r="T36" t="n">
         <v>2153.927326730009</v>
@@ -7050,10 +7050,10 @@
         <v>1935.452972198327</v>
       </c>
       <c r="V36" t="n">
-        <v>1707.05734964666</v>
+        <v>1707.057349646661</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.74148087997</v>
+        <v>1465.741480879971</v>
       </c>
       <c r="X36" t="n">
         <v>1267.824492757765</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.4949863294878</v>
+        <v>53.48597209080678</v>
       </c>
       <c r="C37" t="n">
-        <v>203.5625265624998</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="D37" t="n">
-        <v>203.5625265624998</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="E37" t="n">
-        <v>51.55351232381859</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="F37" t="n">
-        <v>51.55351232381859</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="G37" t="n">
         <v>50.57771670266141</v>
@@ -7120,25 +7120,25 @@
         <v>796.2713684181125</v>
       </c>
       <c r="S37" t="n">
-        <v>754.7839309606816</v>
+        <v>587.10042118935</v>
       </c>
       <c r="T37" t="n">
-        <v>690.4012904807898</v>
+        <v>518.2956444997321</v>
       </c>
       <c r="U37" t="n">
-        <v>570.9087667361119</v>
+        <v>398.8031207550542</v>
       </c>
       <c r="V37" t="n">
-        <v>477.8569720658662</v>
+        <v>305.7513260848083</v>
       </c>
       <c r="W37" t="n">
-        <v>359.3840803545969</v>
+        <v>187.278434373539</v>
       </c>
       <c r="X37" t="n">
-        <v>295.8151260213043</v>
+        <v>123.7094800402464</v>
       </c>
       <c r="Y37" t="n">
-        <v>221.366845242536</v>
+        <v>69.35783100385503</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1350.569731241902</v>
+        <v>1350.569731241903</v>
       </c>
       <c r="C38" t="n">
-        <v>1136.319482346041</v>
+        <v>1136.319482346042</v>
       </c>
       <c r="D38" t="n">
-        <v>931.1790273445963</v>
+        <v>931.1790273445971</v>
       </c>
       <c r="E38" t="n">
-        <v>704.0768172220347</v>
+        <v>704.0768172220355</v>
       </c>
       <c r="F38" t="n">
-        <v>457.6091363035366</v>
+        <v>457.6091363035375</v>
       </c>
       <c r="G38" t="n">
         <v>209.7692730555743</v>
       </c>
       <c r="H38" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I38" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J38" t="n">
-        <v>170.8744592105271</v>
+        <v>170.8744592105272</v>
       </c>
       <c r="K38" t="n">
         <v>483.4013103933594</v>
       </c>
       <c r="L38" t="n">
-        <v>689.0975235124215</v>
+        <v>921.0885116993898</v>
       </c>
       <c r="M38" t="n">
-        <v>1182.258526621333</v>
+        <v>1414.249514808302</v>
       </c>
       <c r="N38" t="n">
         <v>1662.128561950265</v>
       </c>
       <c r="O38" t="n">
-        <v>2063.013239477517</v>
+        <v>2063.013239477518</v>
       </c>
       <c r="P38" t="n">
-        <v>2373.001577091165</v>
+        <v>2373.001577091166</v>
       </c>
       <c r="Q38" t="n">
         <v>2528.88583513307</v>
@@ -7199,22 +7199,22 @@
         <v>2528.88583513307</v>
       </c>
       <c r="S38" t="n">
-        <v>2522.57110027027</v>
+        <v>2522.571100270271</v>
       </c>
       <c r="T38" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U38" t="n">
-        <v>2381.28192205239</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V38" t="n">
         <v>2211.986157719663</v>
       </c>
       <c r="W38" t="n">
-        <v>2017.134737348595</v>
+        <v>2017.134737348596</v>
       </c>
       <c r="X38" t="n">
-        <v>1802.78810664142</v>
+        <v>1802.788106641421</v>
       </c>
       <c r="Y38" t="n">
         <v>1576.92976098859</v>
@@ -7248,25 +7248,25 @@
         <v>108.2641833752284</v>
       </c>
       <c r="I39" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J39" t="n">
         <v>139.5979392287872</v>
       </c>
       <c r="K39" t="n">
-        <v>139.5979392287872</v>
+        <v>418.2542974542191</v>
       </c>
       <c r="L39" t="n">
-        <v>571.5292775530943</v>
+        <v>850.1856357785261</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.709291390917</v>
+        <v>916.9152927117711</v>
       </c>
       <c r="N39" t="n">
-        <v>1724.163440383454</v>
+        <v>1507.369441704308</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.805400563331</v>
+        <v>1972.011401884185</v>
       </c>
       <c r="P39" t="n">
         <v>2332.248420300317</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.48597209080665</v>
+        <v>210.5430401443635</v>
       </c>
       <c r="C40" t="n">
-        <v>51.55351232381857</v>
+        <v>208.6105803773754</v>
       </c>
       <c r="D40" t="n">
-        <v>51.55351232381857</v>
+        <v>208.6105803773754</v>
       </c>
       <c r="E40" t="n">
-        <v>51.55351232381857</v>
+        <v>208.6105803773754</v>
       </c>
       <c r="F40" t="n">
-        <v>51.55351232381857</v>
+        <v>208.6105803773754</v>
       </c>
       <c r="G40" t="n">
-        <v>50.57771670266139</v>
+        <v>207.6347847562182</v>
       </c>
       <c r="H40" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I40" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J40" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K40" t="n">
         <v>113.8385240588758</v>
@@ -7357,25 +7357,25 @@
         <v>796.2713684181125</v>
       </c>
       <c r="S40" t="n">
-        <v>587.10042118935</v>
+        <v>739.7353530331803</v>
       </c>
       <c r="T40" t="n">
-        <v>522.7177807094582</v>
+        <v>675.3527125532886</v>
       </c>
       <c r="U40" t="n">
-        <v>398.8031207550538</v>
+        <v>555.8601888086107</v>
       </c>
       <c r="V40" t="n">
-        <v>305.751326084808</v>
+        <v>462.8083941383649</v>
       </c>
       <c r="W40" t="n">
-        <v>187.2784343735387</v>
+        <v>344.3355024270956</v>
       </c>
       <c r="X40" t="n">
-        <v>123.7094800402461</v>
+        <v>280.766548093803</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.35783100385484</v>
+        <v>226.4148990574117</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1136.319482346042</v>
       </c>
       <c r="D41" t="n">
-        <v>931.1790273445977</v>
+        <v>931.1790273445968</v>
       </c>
       <c r="E41" t="n">
-        <v>704.0768172220362</v>
+        <v>704.0768172220352</v>
       </c>
       <c r="F41" t="n">
-        <v>457.6091363035382</v>
+        <v>457.6091363035371</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7692730555742</v>
+        <v>209.7692730555743</v>
       </c>
       <c r="H41" t="n">
         <v>50.57771670266141</v>
@@ -7412,22 +7412,22 @@
         <v>50.57771670266141</v>
       </c>
       <c r="K41" t="n">
-        <v>363.1045678854936</v>
+        <v>251.4103222063916</v>
       </c>
       <c r="L41" t="n">
-        <v>800.7917691915241</v>
+        <v>689.097523512422</v>
       </c>
       <c r="M41" t="n">
-        <v>1293.952772300436</v>
+        <v>1182.258526621334</v>
       </c>
       <c r="N41" t="n">
-        <v>1773.822807629367</v>
+        <v>1662.128561950265</v>
       </c>
       <c r="O41" t="n">
-        <v>2174.70748515662</v>
+        <v>2063.013239477518</v>
       </c>
       <c r="P41" t="n">
-        <v>2484.695822770268</v>
+        <v>2373.001577091166</v>
       </c>
       <c r="Q41" t="n">
         <v>2528.88583513307</v>
@@ -7439,7 +7439,7 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T41" t="n">
-        <v>2468.437299484944</v>
+        <v>2468.437299484943</v>
       </c>
       <c r="U41" t="n">
         <v>2381.28192205239</v>
@@ -7454,7 +7454,7 @@
         <v>1802.788106641421</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.929760988591</v>
+        <v>1576.92976098859</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.8837236260832</v>
+        <v>915.8837236260828</v>
       </c>
       <c r="C42" t="n">
-        <v>754.1800508670379</v>
+        <v>754.1800508670376</v>
       </c>
       <c r="D42" t="n">
-        <v>615.34141385725</v>
+        <v>615.3414138572498</v>
       </c>
       <c r="E42" t="n">
-        <v>468.3134039141213</v>
+        <v>468.313403914121</v>
       </c>
       <c r="F42" t="n">
-        <v>333.6196058639956</v>
+        <v>333.6196058639953</v>
       </c>
       <c r="G42" t="n">
-        <v>205.2017615113975</v>
+        <v>205.2017615113973</v>
       </c>
       <c r="H42" t="n">
         <v>108.2641833752284</v>
@@ -7494,16 +7494,16 @@
         <v>418.2542974542191</v>
       </c>
       <c r="L42" t="n">
-        <v>850.1856357785263</v>
+        <v>850.1856357785261</v>
       </c>
       <c r="M42" t="n">
         <v>1412.365649616348</v>
       </c>
       <c r="N42" t="n">
-        <v>1507.369441704308</v>
+        <v>1507.369441704309</v>
       </c>
       <c r="O42" t="n">
-        <v>1972.011401884185</v>
+        <v>1972.011401884186</v>
       </c>
       <c r="P42" t="n">
         <v>2332.248420300317</v>
@@ -7527,7 +7527,7 @@
         <v>1707.05734964666</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.741480879971</v>
+        <v>1465.74148087997</v>
       </c>
       <c r="X42" t="n">
         <v>1267.824492757765</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>221.1694818621383</v>
+        <v>53.48597209080678</v>
       </c>
       <c r="C43" t="n">
-        <v>219.2370220951502</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="D43" t="n">
-        <v>219.2370220951502</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="E43" t="n">
-        <v>219.2370220951502</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="F43" t="n">
-        <v>219.2370220951502</v>
+        <v>51.55351232381864</v>
       </c>
       <c r="G43" t="n">
         <v>50.57771670266141</v>
@@ -7594,25 +7594,25 @@
         <v>796.2713684181125</v>
       </c>
       <c r="S43" t="n">
-        <v>750.3617947509548</v>
+        <v>587.10042118935</v>
       </c>
       <c r="T43" t="n">
-        <v>685.9791542710631</v>
+        <v>518.2956444997321</v>
       </c>
       <c r="U43" t="n">
-        <v>566.4866305263852</v>
+        <v>398.8031207550542</v>
       </c>
       <c r="V43" t="n">
-        <v>473.4348358561394</v>
+        <v>305.7513260848083</v>
       </c>
       <c r="W43" t="n">
-        <v>354.9619441448702</v>
+        <v>187.278434373539</v>
       </c>
       <c r="X43" t="n">
-        <v>291.3929898115776</v>
+        <v>123.7094800402464</v>
       </c>
       <c r="Y43" t="n">
-        <v>237.0413407751864</v>
+        <v>69.35783100385503</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1136.319482346042</v>
       </c>
       <c r="D44" t="n">
-        <v>931.1790273445977</v>
+        <v>931.1790273445971</v>
       </c>
       <c r="E44" t="n">
-        <v>704.0768172220362</v>
+        <v>704.0768172220355</v>
       </c>
       <c r="F44" t="n">
-        <v>457.6091363035382</v>
+        <v>457.6091363035375</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7692730555742</v>
+        <v>209.7692730555743</v>
       </c>
       <c r="H44" t="n">
         <v>50.57771670266141</v>
@@ -7664,7 +7664,7 @@
         <v>2174.70748515662</v>
       </c>
       <c r="P44" t="n">
-        <v>2373.001577091166</v>
+        <v>2484.695822770268</v>
       </c>
       <c r="Q44" t="n">
         <v>2528.88583513307</v>
@@ -7676,7 +7676,7 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T44" t="n">
-        <v>2468.437299484944</v>
+        <v>2468.437299484943</v>
       </c>
       <c r="U44" t="n">
         <v>2381.281922052391</v>
@@ -7691,7 +7691,7 @@
         <v>1802.788106641421</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.929760988591</v>
+        <v>1576.92976098859</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.8837236260828</v>
+        <v>915.8837236260832</v>
       </c>
       <c r="C45" t="n">
-        <v>754.1800508670376</v>
+        <v>754.1800508670379</v>
       </c>
       <c r="D45" t="n">
-        <v>615.3414138572498</v>
+        <v>615.34141385725</v>
       </c>
       <c r="E45" t="n">
-        <v>468.313403914121</v>
+        <v>468.3134039141213</v>
       </c>
       <c r="F45" t="n">
-        <v>333.6196058639953</v>
+        <v>333.6196058639956</v>
       </c>
       <c r="G45" t="n">
         <v>205.2017615113975</v>
@@ -7725,22 +7725,22 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J45" t="n">
-        <v>50.57771670266141</v>
+        <v>139.5979392287872</v>
       </c>
       <c r="K45" t="n">
-        <v>50.57771670266141</v>
+        <v>418.2542974542191</v>
       </c>
       <c r="L45" t="n">
-        <v>354.7352788739493</v>
+        <v>850.1856357785261</v>
       </c>
       <c r="M45" t="n">
-        <v>916.9152927117716</v>
+        <v>916.9152927117711</v>
       </c>
       <c r="N45" t="n">
-        <v>1507.369441704309</v>
+        <v>1507.369441704308</v>
       </c>
       <c r="O45" t="n">
-        <v>1972.011401884186</v>
+        <v>1972.011401884185</v>
       </c>
       <c r="P45" t="n">
         <v>2332.248420300317</v>
@@ -7764,7 +7764,7 @@
         <v>1707.05734964666</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.74148087997</v>
+        <v>1465.741480879971</v>
       </c>
       <c r="X45" t="n">
         <v>1267.824492757765</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.48597209080661</v>
+        <v>57.90810830053287</v>
       </c>
       <c r="C46" t="n">
-        <v>51.55351232381856</v>
+        <v>55.97564853354474</v>
       </c>
       <c r="D46" t="n">
-        <v>51.55351232381856</v>
+        <v>55.97564853354474</v>
       </c>
       <c r="E46" t="n">
-        <v>51.55351232381856</v>
+        <v>55.97564853354474</v>
       </c>
       <c r="F46" t="n">
-        <v>51.55351232381856</v>
+        <v>55.97564853354474</v>
       </c>
       <c r="G46" t="n">
         <v>50.57771670266141</v>
@@ -7834,22 +7834,22 @@
         <v>754.7839309606816</v>
       </c>
       <c r="T46" t="n">
-        <v>522.7177807094581</v>
+        <v>690.4012904807897</v>
       </c>
       <c r="U46" t="n">
-        <v>398.8031207550536</v>
+        <v>570.9087667361118</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7513260848078</v>
+        <v>310.1734622945344</v>
       </c>
       <c r="W46" t="n">
-        <v>187.2784343735386</v>
+        <v>191.7005705832651</v>
       </c>
       <c r="X46" t="n">
-        <v>123.709480040246</v>
+        <v>128.1316162499725</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.35783100385477</v>
+        <v>73.77996721358113</v>
       </c>
     </row>
   </sheetData>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.31373860463961</v>
+        <v>98.31373860463964</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>135.3788062399965</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>168.2163944543119</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>118.5506413509022</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947513</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,16 +8775,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>37.55798303881565</v>
+        <v>595.3379318042946</v>
       </c>
       <c r="N12" t="n">
-        <v>395.7904782259264</v>
+        <v>26.72675433092533</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>315.2047910544975</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8927,10 +8927,10 @@
         <v>98.31373860463961</v>
       </c>
       <c r="K14" t="n">
-        <v>105.7053482790473</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>135.3788062399961</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>184.1124032457537</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947511</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>47.46540951455309</v>
+        <v>595.3379318042946</v>
       </c>
       <c r="N15" t="n">
-        <v>584.5067030964042</v>
+        <v>26.72675433092527</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.47682271038883</v>
+        <v>174.3036658791828</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.31373860463961</v>
+        <v>98.31373860463964</v>
       </c>
       <c r="K17" t="n">
-        <v>105.7053482790473</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>451.062494303463</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9179,10 +9179,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>168.2163944543125</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>118.5506413509022</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99892924947511</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>37.55798303881566</v>
+        <v>406.6217069338173</v>
       </c>
       <c r="N18" t="n">
-        <v>485.7098949189832</v>
+        <v>26.72675433092533</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.31373860463961</v>
+        <v>98.31373860463964</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9410,16 +9410,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>160.9702290599909</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>168.2163944543125</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>118.5506413509022</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,19 +9477,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947513</v>
       </c>
       <c r="K21" t="n">
-        <v>62.33373920177451</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>595.3379318042948</v>
+        <v>595.3379318042946</v>
       </c>
       <c r="N21" t="n">
-        <v>318.105249721241</v>
+        <v>126.5535974997193</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463964</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>171.2671101738998</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9650,13 +9650,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>90.10621793727317</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.850871767526</v>
+        <v>118.5506413509022</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>73.99892924947511</v>
+        <v>73.99892924947513</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>595.3379318042946</v>
+        <v>595.3379318042948</v>
       </c>
       <c r="N24" t="n">
-        <v>26.72675433092529</v>
+        <v>126.5535974997197</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>174.3036658791828</v>
+        <v>74.47682271038883</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>73.99892924947511</v>
+        <v>73.99892924947513</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177452</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>212.6095973754565</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>144.0360537000186</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,16 +10425,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>73.99892924947511</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>131.8929701914041</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>104.9616769107806</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.47682271038883</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.31373860463961</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229274</v>
+        <v>341.4628356279137</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.1870174749446</v>
+        <v>118.5506413509022</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,13 +10665,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>62.33373920177451</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>104.9616769107808</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>393.641413528492</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.47682271038883</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10826,13 +10826,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>308.6252474135974</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355793</v>
+        <v>334.2166702335917</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10902,13 +10902,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>62.33373920177451</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>104.9616769107803</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10917,7 +10917,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>195.0177621822767</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11060,7 +11060,7 @@
         <v>98.31373860463961</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>308.5665659595828</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.1870174749451</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>122.6901806824</v>
+        <v>122.6901806824005</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11312,10 +11312,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>305.5158502399959</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>163.1870174749446</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,16 +11373,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>73.99892924947511</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>62.33373920177451</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>353.0280285379118</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>104.9616769107803</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.3462824830168</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>267.3275865275447</v>
       </c>
       <c r="E11" t="n">
         <v>289.0697240974503</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.49012359028569</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>124.9015783076157</v>
+        <v>55.71732622265483</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>257.141442243471</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>276.4417004762176</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.8382982724164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>4.51031091019403</v>
+        <v>267.3275865275447</v>
       </c>
       <c r="E14" t="n">
-        <v>289.0697240974502</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.8381768654981</v>
       </c>
       <c r="I14" t="n">
-        <v>47.16062625453678</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>117.8309988535884</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>139.4131961415552</v>
       </c>
       <c r="V14" t="n">
         <v>231.8413427655141</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.8382982724164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>869079.8964634875</v>
+        <v>869079.8964634874</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>972334.0219566228</v>
+        <v>972334.0219566227</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>972334.0219566227</v>
+        <v>972334.0219566228</v>
       </c>
     </row>
     <row r="10">
@@ -26317,43 +26317,43 @@
         <v>536113.6420551129</v>
       </c>
       <c r="D2" t="n">
-        <v>536113.6420551129</v>
+        <v>536113.642055113</v>
       </c>
       <c r="E2" t="n">
         <v>468500.758683837</v>
       </c>
       <c r="F2" t="n">
-        <v>468500.7586838373</v>
+        <v>468500.7586838371</v>
       </c>
       <c r="G2" t="n">
+        <v>537336.8423459273</v>
+      </c>
+      <c r="H2" t="n">
+        <v>537336.8423459271</v>
+      </c>
+      <c r="I2" t="n">
         <v>537336.8423459274</v>
-      </c>
-      <c r="H2" t="n">
-        <v>537336.8423459276</v>
-      </c>
-      <c r="I2" t="n">
-        <v>537336.8423459275</v>
       </c>
       <c r="J2" t="n">
         <v>537336.8423459274</v>
       </c>
       <c r="K2" t="n">
-        <v>537336.8423459268</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="L2" t="n">
-        <v>537336.8423459276</v>
+        <v>537336.8423459275</v>
       </c>
       <c r="M2" t="n">
-        <v>537336.8423459271</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="N2" t="n">
-        <v>537336.8423459267</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="O2" t="n">
-        <v>537336.8423459271</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="P2" t="n">
-        <v>537336.8423459271</v>
+        <v>537336.8423459274</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>362828.5755808612</v>
+        <v>362828.5755808611</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68784.12268014443</v>
+        <v>68784.12268014447</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95920.71466492984</v>
+        <v>95920.71466492978</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>68784.12268014446</v>
       </c>
       <c r="M3" t="n">
-        <v>129612.700680189</v>
+        <v>129612.7006801889</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>12630.3881978587</v>
+        <v>12630.38819785867</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>279027.0070681255</v>
       </c>
       <c r="F4" t="n">
-        <v>279027.0070681256</v>
+        <v>279027.0070681255</v>
       </c>
       <c r="G4" t="n">
         <v>334921.2684652061</v>
@@ -26457,7 +26457,7 @@
         <v>330141.7994638877</v>
       </c>
       <c r="P4" t="n">
-        <v>330141.7994638877</v>
+        <v>330141.7994638876</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>45585.60330960765</v>
       </c>
       <c r="F5" t="n">
-        <v>45585.60330960766</v>
+        <v>45585.60330960765</v>
       </c>
       <c r="G5" t="n">
         <v>52813.86882160398</v>
       </c>
       <c r="H5" t="n">
+        <v>52813.86882160398</v>
+      </c>
+      <c r="I5" t="n">
         <v>52813.86882160399</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52813.86882160398</v>
       </c>
       <c r="J5" t="n">
         <v>64940.3442904745</v>
       </c>
       <c r="K5" t="n">
-        <v>64940.34429047449</v>
+        <v>64940.3442904745</v>
       </c>
       <c r="L5" t="n">
         <v>64940.3442904745</v>
       </c>
       <c r="M5" t="n">
-        <v>55512.11660807206</v>
+        <v>55512.11660807204</v>
       </c>
       <c r="N5" t="n">
+        <v>55512.11660807205</v>
+      </c>
+      <c r="O5" t="n">
         <v>55512.11660807204</v>
       </c>
-      <c r="O5" t="n">
-        <v>55512.11660807206</v>
-      </c>
       <c r="P5" t="n">
-        <v>55512.11660807206</v>
+        <v>55512.11660807204</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91804.13761962179</v>
+        <v>91799.76904715459</v>
       </c>
       <c r="C6" t="n">
-        <v>91804.13761962173</v>
+        <v>91799.76904715454</v>
       </c>
       <c r="D6" t="n">
-        <v>91804.13761962179</v>
+        <v>91799.76904715471</v>
       </c>
       <c r="E6" t="n">
-        <v>-218940.4272747574</v>
+        <v>-219186.2704306933</v>
       </c>
       <c r="F6" t="n">
-        <v>143888.1483061039</v>
+        <v>143642.3051501679</v>
       </c>
       <c r="G6" t="n">
-        <v>80817.58237897282</v>
+        <v>80817.5823789727</v>
       </c>
       <c r="H6" t="n">
-        <v>149601.7050591175</v>
+        <v>149601.705059117</v>
       </c>
       <c r="I6" t="n">
-        <v>149601.7050591174</v>
+        <v>149601.7050591172</v>
       </c>
       <c r="J6" t="n">
-        <v>47831.13922903721</v>
+        <v>47831.13922903727</v>
       </c>
       <c r="K6" t="n">
-        <v>143751.8538939665</v>
+        <v>143751.853893967</v>
       </c>
       <c r="L6" t="n">
-        <v>74967.7312138229</v>
+        <v>74967.73121382279</v>
       </c>
       <c r="M6" t="n">
-        <v>22070.22559377844</v>
+        <v>22070.22559377868</v>
       </c>
       <c r="N6" t="n">
-        <v>151682.9262739669</v>
+        <v>151682.9262739675</v>
       </c>
       <c r="O6" t="n">
-        <v>139052.5380761087</v>
+        <v>139052.5380761088</v>
       </c>
       <c r="P6" t="n">
-        <v>151682.9262739674</v>
+        <v>151682.9262739677</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="F2" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G2" t="n">
         <v>187.7482919476845</v>
@@ -26716,16 +26716,16 @@
         <v>101.7681385975039</v>
       </c>
       <c r="M2" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="N2" t="n">
         <v>166.0066746736183</v>
       </c>
       <c r="O2" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="P2" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>142.9833385739894</v>
+      </c>
+      <c r="F3" t="n">
         <v>142.9833385739895</v>
-      </c>
-      <c r="F3" t="n">
-        <v>142.9833385739894</v>
       </c>
       <c r="G3" t="n">
         <v>142.9833385739894</v>
@@ -26805,10 +26805,10 @@
         <v>557.7799487654789</v>
       </c>
       <c r="H4" t="n">
+        <v>557.7799487654789</v>
+      </c>
+      <c r="I4" t="n">
         <v>557.7799487654792</v>
-      </c>
-      <c r="I4" t="n">
-        <v>557.7799487654789</v>
       </c>
       <c r="J4" t="n">
         <v>876.1145043718416</v>
@@ -26823,10 +26823,10 @@
         <v>632.2214587832675</v>
       </c>
       <c r="N4" t="n">
-        <v>632.2214587832674</v>
+        <v>632.2214587832675</v>
       </c>
       <c r="O4" t="n">
-        <v>632.2214587832676</v>
+        <v>632.2214587832675</v>
       </c>
       <c r="P4" t="n">
         <v>632.2214587832675</v>
@@ -26917,10 +26917,10 @@
         <v>101.7681385975039</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.98015335018053</v>
+        <v>85.98015335018059</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.78798524732335</v>
+        <v>15.78798524732336</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>85.98015335018057</v>
       </c>
       <c r="M2" t="n">
-        <v>64.23853607611439</v>
+        <v>64.23853607611431</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732338</v>
+        <v>15.78798524732333</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142.9833385739895</v>
+        <v>142.9833385739894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>318.3345556063626</v>
+        <v>318.3345556063624</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.886903176905</v>
+        <v>313.8869031769049</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>101.7681385975039</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.98015335018053</v>
+        <v>85.98015335018059</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732335</v>
+        <v>15.78798524732336</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>53.62465884835798</v>
+        <v>53.624658848358</v>
       </c>
       <c r="S11" t="n">
         <v>101.7681385975039</v>
@@ -28169,10 +28169,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>91.15627112472247</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>95.96820235480737</v>
       </c>
       <c r="I12" t="n">
-        <v>57.10960200584132</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>34.04666911888089</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="J13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975035</v>
       </c>
       <c r="K13" t="n">
         <v>101.7681385975039</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>53.62465884835799</v>
+        <v>53.62465884835798</v>
       </c>
       <c r="S14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y14" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="15">
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>89.92346545441501</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I15" t="n">
-        <v>57.10960200584133</v>
+        <v>57.10960200584132</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,10 +28454,10 @@
         <v>40.09140601927352</v>
       </c>
       <c r="S15" t="n">
-        <v>101.768138597504</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>95.72340169711099</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="L16" t="n">
-        <v>101.7681385975025</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="N16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="P16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="R16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="S16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>53.62465884835799</v>
+        <v>53.624658848358</v>
       </c>
       <c r="S17" t="n">
         <v>172.2582621877896</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.274100631422797</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.09140601927352</v>
+        <v>40.09140601927353</v>
       </c>
       <c r="S18" t="n">
         <v>145.5589030715301</v>
       </c>
       <c r="T18" t="n">
-        <v>103.2423029862297</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28743,7 +28743,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J19" t="n">
-        <v>41.22746252636382</v>
+        <v>41.22746252636383</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.56148380817545</v>
+        <v>16.56148380817546</v>
       </c>
       <c r="R19" t="n">
         <v>136.4331932014877</v>
@@ -28779,16 +28779,16 @@
         <v>187.7482919476845</v>
       </c>
       <c r="V19" t="n">
-        <v>187.7482919476845</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7482919476845</v>
+        <v>34.32836029747665</v>
       </c>
       <c r="X19" t="n">
         <v>187.7482919476845</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.8410575878429</v>
+        <v>187.7482919476845</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>53.62465884835799</v>
+        <v>53.624658848358</v>
       </c>
       <c r="S20" t="n">
         <v>172.2582621877896</v>
@@ -28898,7 +28898,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I21" t="n">
-        <v>57.10960200584133</v>
+        <v>57.10960200584134</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.681141807312653</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>8.681141807311775</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28977,10 +28977,10 @@
         <v>155.4864973730212</v>
       </c>
       <c r="I22" t="n">
-        <v>127.0998634623139</v>
+        <v>135.0070978221555</v>
       </c>
       <c r="J22" t="n">
-        <v>41.22746252636382</v>
+        <v>41.22746252636383</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,16 +29001,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.56148380817545</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S22" t="n">
-        <v>187.7482919476845</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>187.7482919476845</v>
+        <v>50.8898441056522</v>
       </c>
       <c r="U22" t="n">
         <v>187.7482919476845</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>53.62465884835799</v>
+        <v>53.624658848358</v>
       </c>
       <c r="S23" t="n">
         <v>172.2582621877896</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1336659090721</v>
+        <v>101.144320129348</v>
       </c>
       <c r="H24" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>57.10960200584133</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,10 +29168,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>8.681141807312656</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.471401242580015</v>
+        <v>28.29988334732815</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29217,7 +29217,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J25" t="n">
-        <v>41.22746252636382</v>
+        <v>41.22746252636383</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.56148380817545</v>
+        <v>16.56148380817546</v>
       </c>
       <c r="R25" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S25" t="n">
-        <v>187.7482919476845</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>187.7482919476845</v>
@@ -29311,13 +29311,13 @@
         <v>101.7681385975039</v>
       </c>
       <c r="O26" t="n">
+        <v>72.631275049914</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>101.7681385975039</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>72.63127504991388</v>
       </c>
       <c r="R26" t="n">
         <v>101.7681385975039</v>
@@ -29533,13 +29533,13 @@
         <v>101.7681385975039</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K29" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="L29" t="n">
-        <v>72.63127504991365</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M29" t="n">
         <v>101.7681385975039</v>
@@ -29551,13 +29551,13 @@
         <v>101.7681385975039</v>
       </c>
       <c r="P29" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="R29" t="n">
-        <v>101.7681385975039</v>
+        <v>72.63127504991384</v>
       </c>
       <c r="S29" t="n">
         <v>101.7681385975039</v>
@@ -29712,7 +29712,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.7681385975056</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="R31" t="n">
         <v>101.7681385975039</v>
@@ -29776,7 +29776,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="L32" t="n">
-        <v>72.63127504991388</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M32" t="n">
         <v>101.7681385975039</v>
@@ -29788,10 +29788,10 @@
         <v>101.7681385975039</v>
       </c>
       <c r="P32" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>72.63127504991391</v>
       </c>
       <c r="R32" t="n">
         <v>101.7681385975039</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="E35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="F35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="G35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="I35" t="n">
         <v>148.9287648520408</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.62465884835799</v>
+        <v>53.624658848358</v>
       </c>
       <c r="S35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="36">
@@ -30141,22 +30141,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H37" t="n">
         <v>155.4864973730212</v>
@@ -30192,25 +30192,25 @@
         <v>136.4331932014877</v>
       </c>
       <c r="S37" t="n">
-        <v>166.0066746736183</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0066746736183</v>
+        <v>161.6287598259895</v>
       </c>
       <c r="U37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.1110092486651</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.62465884835799</v>
+        <v>53.624658848358</v>
       </c>
       <c r="S38" t="n">
         <v>166.0066746736183</v>
@@ -30396,7 +30396,7 @@
         <v>166.0066746736183</v>
       </c>
       <c r="H40" t="n">
-        <v>155.4864973730212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>135.0070978221555</v>
@@ -30429,13 +30429,13 @@
         <v>136.4331932014877</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>151.1085825253921</v>
       </c>
       <c r="T40" t="n">
         <v>166.0066746736183</v>
       </c>
       <c r="U40" t="n">
-        <v>161.628759825989</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="V40" t="n">
         <v>166.0066746736183</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="E41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="F41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="G41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="I41" t="n">
         <v>148.9287648520408</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>53.62465884835799</v>
+        <v>53.624658848358</v>
       </c>
       <c r="S41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H43" t="n">
         <v>155.4864973730212</v>
@@ -30666,25 +30666,25 @@
         <v>136.4331932014877</v>
       </c>
       <c r="S43" t="n">
-        <v>161.6287598259888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0066746736183</v>
+        <v>161.6287598259895</v>
       </c>
       <c r="U43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="E44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="F44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="G44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="I44" t="n">
         <v>148.9287648520408</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.62465884835799</v>
+        <v>53.624658848358</v>
       </c>
       <c r="S44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="W44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0066746736183</v>
+        <v>161.6287598259894</v>
       </c>
       <c r="H46" t="n">
         <v>155.4864973730212</v>
@@ -30903,25 +30903,25 @@
         <v>136.4331932014877</v>
       </c>
       <c r="S46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U46" t="n">
-        <v>161.6287598259889</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V46" t="n">
-        <v>166.0066746736183</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.0066746736183</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5748073912522186</v>
+        <v>0.5748073912522182</v>
       </c>
       <c r="H11" t="n">
-        <v>5.886746195661785</v>
+        <v>5.886746195661781</v>
       </c>
       <c r="I11" t="n">
-        <v>22.16026195125118</v>
+        <v>22.16026195125117</v>
       </c>
       <c r="J11" t="n">
-        <v>48.78605882329303</v>
+        <v>48.786058823293</v>
       </c>
       <c r="K11" t="n">
-        <v>73.11765569499946</v>
+        <v>73.11765569499941</v>
       </c>
       <c r="L11" t="n">
-        <v>90.70891739503456</v>
+        <v>90.7089173950345</v>
       </c>
       <c r="M11" t="n">
-        <v>100.9311483392162</v>
+        <v>100.9311483392161</v>
       </c>
       <c r="N11" t="n">
-        <v>102.5643198396116</v>
+        <v>102.5643198396115</v>
       </c>
       <c r="O11" t="n">
-        <v>96.84857884284732</v>
+        <v>96.84857884284726</v>
       </c>
       <c r="P11" t="n">
-        <v>82.65802137130815</v>
+        <v>82.65802137130811</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.07273167208806</v>
+        <v>62.07273167208802</v>
       </c>
       <c r="R11" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074718</v>
       </c>
       <c r="S11" t="n">
-        <v>13.09842342815994</v>
+        <v>13.09842342815993</v>
       </c>
       <c r="T11" t="n">
-        <v>2.516219355206588</v>
+        <v>2.516219355206586</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04598459130017747</v>
+        <v>0.04598459130017744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3075490678761283</v>
+        <v>0.3075490678761281</v>
       </c>
       <c r="H12" t="n">
-        <v>2.970276523961556</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I12" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J12" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719156</v>
       </c>
       <c r="K12" t="n">
-        <v>49.66242996489218</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L12" t="n">
-        <v>66.77726581231462</v>
+        <v>66.77726581231458</v>
       </c>
       <c r="M12" t="n">
-        <v>77.92591952282424</v>
+        <v>77.9259195228242</v>
       </c>
       <c r="N12" t="n">
-        <v>79.98838673678304</v>
+        <v>79.98838673678299</v>
       </c>
       <c r="O12" t="n">
-        <v>73.17374686436987</v>
+        <v>73.17374686436983</v>
       </c>
       <c r="P12" t="n">
-        <v>58.72838297013542</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.25836873450368</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R12" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S12" t="n">
-        <v>5.712589045857029</v>
+        <v>5.712589045857025</v>
       </c>
       <c r="T12" t="n">
-        <v>1.239638567448078</v>
+        <v>1.239638567448077</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02023349130764003</v>
+        <v>0.02023349130764002</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H13" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I13" t="n">
-        <v>7.753916131192742</v>
+        <v>7.753916131192738</v>
       </c>
       <c r="J13" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K13" t="n">
-        <v>29.95618142582926</v>
+        <v>29.95618142582924</v>
       </c>
       <c r="L13" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277086</v>
       </c>
       <c r="M13" t="n">
-        <v>40.4174050333</v>
+        <v>40.41740503329997</v>
       </c>
       <c r="N13" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895024</v>
       </c>
       <c r="O13" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226865</v>
       </c>
       <c r="P13" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.59048412467241</v>
+        <v>21.5904841246724</v>
       </c>
       <c r="R13" t="n">
-        <v>11.5933703702779</v>
+        <v>11.59337037027789</v>
       </c>
       <c r="S13" t="n">
-        <v>4.493427213874388</v>
+        <v>4.493427213874385</v>
       </c>
       <c r="T13" t="n">
-        <v>1.101674903766804</v>
+        <v>1.101674903766803</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0140639349417039</v>
+        <v>0.01406393494170389</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522186</v>
       </c>
       <c r="H14" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661785</v>
       </c>
       <c r="I14" t="n">
-        <v>22.16026195125117</v>
+        <v>22.16026195125118</v>
       </c>
       <c r="J14" t="n">
-        <v>48.78605882329302</v>
+        <v>48.78605882329303</v>
       </c>
       <c r="K14" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499946</v>
       </c>
       <c r="L14" t="n">
-        <v>90.70891739503453</v>
+        <v>90.70891739503456</v>
       </c>
       <c r="M14" t="n">
         <v>100.9311483392162</v>
       </c>
       <c r="N14" t="n">
-        <v>102.5643198396115</v>
+        <v>102.5643198396116</v>
       </c>
       <c r="O14" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284732</v>
       </c>
       <c r="P14" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130815</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208806</v>
       </c>
       <c r="R14" t="n">
         <v>36.1072447907472</v>
@@ -32026,10 +32026,10 @@
         <v>13.09842342815994</v>
       </c>
       <c r="T14" t="n">
-        <v>2.516219355206587</v>
+        <v>2.516219355206588</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04598459130017746</v>
+        <v>0.04598459130017747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3075490678761282</v>
+        <v>0.3075490678761283</v>
       </c>
       <c r="H15" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961556</v>
       </c>
       <c r="I15" t="n">
         <v>10.58886045099828</v>
@@ -32078,37 +32078,37 @@
         <v>29.05664241719158</v>
       </c>
       <c r="K15" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489218</v>
       </c>
       <c r="L15" t="n">
-        <v>66.77726581231461</v>
+        <v>66.77726581231462</v>
       </c>
       <c r="M15" t="n">
-        <v>77.92591952282423</v>
+        <v>77.92591952282424</v>
       </c>
       <c r="N15" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678304</v>
       </c>
       <c r="O15" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436987</v>
       </c>
       <c r="P15" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013542</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450368</v>
       </c>
       <c r="R15" t="n">
         <v>19.09502019673015</v>
       </c>
       <c r="S15" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857029</v>
       </c>
       <c r="T15" t="n">
         <v>1.239638567448078</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02023349130764002</v>
+        <v>0.02023349130764003</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,19 +32151,19 @@
         <v>2.292421395497734</v>
       </c>
       <c r="I16" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192742</v>
       </c>
       <c r="J16" t="n">
         <v>18.22920367360518</v>
       </c>
       <c r="K16" t="n">
-        <v>29.95618142582925</v>
+        <v>29.95618142582926</v>
       </c>
       <c r="L16" t="n">
         <v>38.33359867277088</v>
       </c>
       <c r="M16" t="n">
-        <v>40.41740503329999</v>
+        <v>40.4174050333</v>
       </c>
       <c r="N16" t="n">
         <v>39.45636947895026</v>
@@ -32175,19 +32175,19 @@
         <v>31.18443174407139</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.5904841246724</v>
+        <v>21.59048412467241</v>
       </c>
       <c r="R16" t="n">
-        <v>11.59337037027789</v>
+        <v>11.5933703702779</v>
       </c>
       <c r="S16" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874388</v>
       </c>
       <c r="T16" t="n">
-        <v>1.101674903766803</v>
+        <v>1.101674903766804</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01406393494170389</v>
+        <v>0.0140639349417039</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522182</v>
       </c>
       <c r="H17" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661781</v>
       </c>
       <c r="I17" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J17" t="n">
-        <v>48.78605882329302</v>
+        <v>48.786058823293</v>
       </c>
       <c r="K17" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499941</v>
       </c>
       <c r="L17" t="n">
-        <v>90.70891739503453</v>
+        <v>90.7089173950345</v>
       </c>
       <c r="M17" t="n">
-        <v>100.9311483392162</v>
+        <v>100.9311483392161</v>
       </c>
       <c r="N17" t="n">
         <v>102.5643198396115</v>
       </c>
       <c r="O17" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284726</v>
       </c>
       <c r="P17" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130811</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208802</v>
       </c>
       <c r="R17" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074718</v>
       </c>
       <c r="S17" t="n">
-        <v>13.09842342815994</v>
+        <v>13.09842342815993</v>
       </c>
       <c r="T17" t="n">
-        <v>2.516219355206587</v>
+        <v>2.516219355206586</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04598459130017746</v>
+        <v>0.04598459130017744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3075490678761282</v>
+        <v>0.3075490678761281</v>
       </c>
       <c r="H18" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I18" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J18" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719156</v>
       </c>
       <c r="K18" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L18" t="n">
-        <v>66.77726581231461</v>
+        <v>66.77726581231458</v>
       </c>
       <c r="M18" t="n">
-        <v>77.92591952282423</v>
+        <v>77.9259195228242</v>
       </c>
       <c r="N18" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678299</v>
       </c>
       <c r="O18" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436983</v>
       </c>
       <c r="P18" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R18" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S18" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857025</v>
       </c>
       <c r="T18" t="n">
-        <v>1.239638567448078</v>
+        <v>1.239638567448077</v>
       </c>
       <c r="U18" t="n">
         <v>0.02023349130764002</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H19" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I19" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192738</v>
       </c>
       <c r="J19" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K19" t="n">
-        <v>29.95618142582925</v>
+        <v>29.95618142582924</v>
       </c>
       <c r="L19" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277086</v>
       </c>
       <c r="M19" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329997</v>
       </c>
       <c r="N19" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895024</v>
       </c>
       <c r="O19" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226865</v>
       </c>
       <c r="P19" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q19" t="n">
         <v>21.5904841246724</v>
@@ -32418,7 +32418,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S19" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874385</v>
       </c>
       <c r="T19" t="n">
         <v>1.101674903766803</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522182</v>
       </c>
       <c r="H20" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661781</v>
       </c>
       <c r="I20" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J20" t="n">
-        <v>48.78605882329302</v>
+        <v>48.786058823293</v>
       </c>
       <c r="K20" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499941</v>
       </c>
       <c r="L20" t="n">
-        <v>90.70891739503453</v>
+        <v>90.7089173950345</v>
       </c>
       <c r="M20" t="n">
-        <v>100.9311483392162</v>
+        <v>100.9311483392161</v>
       </c>
       <c r="N20" t="n">
         <v>102.5643198396115</v>
       </c>
       <c r="O20" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284726</v>
       </c>
       <c r="P20" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130811</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208802</v>
       </c>
       <c r="R20" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074718</v>
       </c>
       <c r="S20" t="n">
-        <v>13.09842342815994</v>
+        <v>13.09842342815993</v>
       </c>
       <c r="T20" t="n">
-        <v>2.516219355206587</v>
+        <v>2.516219355206586</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04598459130017746</v>
+        <v>0.04598459130017744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3075490678761282</v>
+        <v>0.3075490678761281</v>
       </c>
       <c r="H21" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I21" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J21" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719156</v>
       </c>
       <c r="K21" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L21" t="n">
-        <v>66.77726581231461</v>
+        <v>66.77726581231458</v>
       </c>
       <c r="M21" t="n">
-        <v>77.92591952282423</v>
+        <v>77.9259195228242</v>
       </c>
       <c r="N21" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678299</v>
       </c>
       <c r="O21" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436983</v>
       </c>
       <c r="P21" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R21" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S21" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857025</v>
       </c>
       <c r="T21" t="n">
-        <v>1.239638567448078</v>
+        <v>1.239638567448077</v>
       </c>
       <c r="U21" t="n">
         <v>0.02023349130764002</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H22" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I22" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192738</v>
       </c>
       <c r="J22" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K22" t="n">
-        <v>29.95618142582925</v>
+        <v>29.95618142582924</v>
       </c>
       <c r="L22" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277086</v>
       </c>
       <c r="M22" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329997</v>
       </c>
       <c r="N22" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895024</v>
       </c>
       <c r="O22" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226865</v>
       </c>
       <c r="P22" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q22" t="n">
         <v>21.5904841246724</v>
@@ -32655,7 +32655,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S22" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874385</v>
       </c>
       <c r="T22" t="n">
         <v>1.101674903766803</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522182</v>
       </c>
       <c r="H23" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661781</v>
       </c>
       <c r="I23" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J23" t="n">
-        <v>48.78605882329302</v>
+        <v>48.786058823293</v>
       </c>
       <c r="K23" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499941</v>
       </c>
       <c r="L23" t="n">
-        <v>90.70891739503453</v>
+        <v>90.7089173950345</v>
       </c>
       <c r="M23" t="n">
-        <v>100.9311483392162</v>
+        <v>100.9311483392161</v>
       </c>
       <c r="N23" t="n">
         <v>102.5643198396115</v>
       </c>
       <c r="O23" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284726</v>
       </c>
       <c r="P23" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130811</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208802</v>
       </c>
       <c r="R23" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074718</v>
       </c>
       <c r="S23" t="n">
-        <v>13.09842342815994</v>
+        <v>13.09842342815993</v>
       </c>
       <c r="T23" t="n">
-        <v>2.516219355206587</v>
+        <v>2.516219355206586</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04598459130017746</v>
+        <v>0.04598459130017744</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3075490678761282</v>
+        <v>0.3075490678761281</v>
       </c>
       <c r="H24" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I24" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J24" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719156</v>
       </c>
       <c r="K24" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L24" t="n">
-        <v>66.77726581231461</v>
+        <v>66.77726581231458</v>
       </c>
       <c r="M24" t="n">
-        <v>77.92591952282423</v>
+        <v>77.9259195228242</v>
       </c>
       <c r="N24" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678299</v>
       </c>
       <c r="O24" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436983</v>
       </c>
       <c r="P24" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R24" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S24" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857025</v>
       </c>
       <c r="T24" t="n">
-        <v>1.239638567448078</v>
+        <v>1.239638567448077</v>
       </c>
       <c r="U24" t="n">
         <v>0.02023349130764002</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H25" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I25" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192738</v>
       </c>
       <c r="J25" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K25" t="n">
-        <v>29.95618142582925</v>
+        <v>29.95618142582924</v>
       </c>
       <c r="L25" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277086</v>
       </c>
       <c r="M25" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329997</v>
       </c>
       <c r="N25" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895024</v>
       </c>
       <c r="O25" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226865</v>
       </c>
       <c r="P25" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q25" t="n">
         <v>21.5904841246724</v>
@@ -32892,7 +32892,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S25" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874385</v>
       </c>
       <c r="T25" t="n">
         <v>1.101674903766803</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522182</v>
       </c>
       <c r="H26" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661781</v>
       </c>
       <c r="I26" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J26" t="n">
-        <v>48.78605882329302</v>
+        <v>48.786058823293</v>
       </c>
       <c r="K26" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499941</v>
       </c>
       <c r="L26" t="n">
-        <v>90.70891739503453</v>
+        <v>90.7089173950345</v>
       </c>
       <c r="M26" t="n">
-        <v>100.9311483392162</v>
+        <v>100.9311483392161</v>
       </c>
       <c r="N26" t="n">
         <v>102.5643198396115</v>
       </c>
       <c r="O26" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284726</v>
       </c>
       <c r="P26" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130811</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208802</v>
       </c>
       <c r="R26" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074718</v>
       </c>
       <c r="S26" t="n">
-        <v>13.09842342815994</v>
+        <v>13.09842342815993</v>
       </c>
       <c r="T26" t="n">
-        <v>2.516219355206587</v>
+        <v>2.516219355206586</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04598459130017746</v>
+        <v>0.04598459130017744</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3075490678761282</v>
+        <v>0.3075490678761281</v>
       </c>
       <c r="H27" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I27" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J27" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719156</v>
       </c>
       <c r="K27" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L27" t="n">
-        <v>66.77726581231461</v>
+        <v>66.77726581231458</v>
       </c>
       <c r="M27" t="n">
-        <v>77.92591952282423</v>
+        <v>77.9259195228242</v>
       </c>
       <c r="N27" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678299</v>
       </c>
       <c r="O27" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436983</v>
       </c>
       <c r="P27" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R27" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S27" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857025</v>
       </c>
       <c r="T27" t="n">
-        <v>1.239638567448078</v>
+        <v>1.239638567448077</v>
       </c>
       <c r="U27" t="n">
         <v>0.02023349130764002</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H28" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I28" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192738</v>
       </c>
       <c r="J28" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K28" t="n">
-        <v>29.95618142582925</v>
+        <v>29.95618142582924</v>
       </c>
       <c r="L28" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277086</v>
       </c>
       <c r="M28" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329997</v>
       </c>
       <c r="N28" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895024</v>
       </c>
       <c r="O28" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226865</v>
       </c>
       <c r="P28" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q28" t="n">
         <v>21.5904841246724</v>
@@ -33129,7 +33129,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S28" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874385</v>
       </c>
       <c r="T28" t="n">
         <v>1.101674903766803</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522184</v>
       </c>
       <c r="H29" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661782</v>
       </c>
       <c r="I29" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J29" t="n">
-        <v>48.78605882329302</v>
+        <v>48.78605882329301</v>
       </c>
       <c r="K29" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499943</v>
       </c>
       <c r="L29" t="n">
-        <v>90.70891739503453</v>
+        <v>90.70891739503452</v>
       </c>
       <c r="M29" t="n">
         <v>100.9311483392162</v>
@@ -33196,16 +33196,16 @@
         <v>102.5643198396115</v>
       </c>
       <c r="O29" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284727</v>
       </c>
       <c r="P29" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130812</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208803</v>
       </c>
       <c r="R29" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074719</v>
       </c>
       <c r="S29" t="n">
         <v>13.09842342815994</v>
@@ -33254,40 +33254,40 @@
         <v>0.3075490678761282</v>
       </c>
       <c r="H30" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I30" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J30" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719157</v>
       </c>
       <c r="K30" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L30" t="n">
-        <v>66.77726581231461</v>
+        <v>66.7772658123146</v>
       </c>
       <c r="M30" t="n">
-        <v>77.92591952282423</v>
+        <v>77.92591952282422</v>
       </c>
       <c r="N30" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678301</v>
       </c>
       <c r="O30" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436985</v>
       </c>
       <c r="P30" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R30" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S30" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857026</v>
       </c>
       <c r="T30" t="n">
         <v>1.239638567448078</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H31" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I31" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192739</v>
       </c>
       <c r="J31" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K31" t="n">
         <v>29.95618142582925</v>
       </c>
       <c r="L31" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277087</v>
       </c>
       <c r="M31" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329998</v>
       </c>
       <c r="N31" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895025</v>
       </c>
       <c r="O31" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226866</v>
       </c>
       <c r="P31" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q31" t="n">
         <v>21.5904841246724</v>
@@ -33366,7 +33366,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S31" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874386</v>
       </c>
       <c r="T31" t="n">
         <v>1.101674903766803</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522184</v>
       </c>
       <c r="H32" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661782</v>
       </c>
       <c r="I32" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J32" t="n">
-        <v>48.78605882329302</v>
+        <v>48.78605882329301</v>
       </c>
       <c r="K32" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499943</v>
       </c>
       <c r="L32" t="n">
-        <v>90.70891739503453</v>
+        <v>90.70891739503452</v>
       </c>
       <c r="M32" t="n">
         <v>100.9311483392162</v>
@@ -33433,16 +33433,16 @@
         <v>102.5643198396115</v>
       </c>
       <c r="O32" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284727</v>
       </c>
       <c r="P32" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130812</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208803</v>
       </c>
       <c r="R32" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074719</v>
       </c>
       <c r="S32" t="n">
         <v>13.09842342815994</v>
@@ -33491,40 +33491,40 @@
         <v>0.3075490678761282</v>
       </c>
       <c r="H33" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I33" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J33" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719157</v>
       </c>
       <c r="K33" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L33" t="n">
-        <v>66.77726581231461</v>
+        <v>66.7772658123146</v>
       </c>
       <c r="M33" t="n">
-        <v>77.92591952282423</v>
+        <v>77.92591952282422</v>
       </c>
       <c r="N33" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678301</v>
       </c>
       <c r="O33" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436985</v>
       </c>
       <c r="P33" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R33" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S33" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857026</v>
       </c>
       <c r="T33" t="n">
         <v>1.239638567448078</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H34" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I34" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192739</v>
       </c>
       <c r="J34" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K34" t="n">
         <v>29.95618142582925</v>
       </c>
       <c r="L34" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277087</v>
       </c>
       <c r="M34" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329998</v>
       </c>
       <c r="N34" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895025</v>
       </c>
       <c r="O34" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226866</v>
       </c>
       <c r="P34" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q34" t="n">
         <v>21.5904841246724</v>
@@ -33603,7 +33603,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S34" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874386</v>
       </c>
       <c r="T34" t="n">
         <v>1.101674903766803</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522184</v>
       </c>
       <c r="H35" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661782</v>
       </c>
       <c r="I35" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J35" t="n">
-        <v>48.78605882329302</v>
+        <v>48.78605882329301</v>
       </c>
       <c r="K35" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499943</v>
       </c>
       <c r="L35" t="n">
-        <v>90.70891739503453</v>
+        <v>90.70891739503452</v>
       </c>
       <c r="M35" t="n">
         <v>100.9311483392162</v>
@@ -33670,16 +33670,16 @@
         <v>102.5643198396115</v>
       </c>
       <c r="O35" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284727</v>
       </c>
       <c r="P35" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130812</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208803</v>
       </c>
       <c r="R35" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074719</v>
       </c>
       <c r="S35" t="n">
         <v>13.09842342815994</v>
@@ -33728,40 +33728,40 @@
         <v>0.3075490678761282</v>
       </c>
       <c r="H36" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I36" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J36" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719157</v>
       </c>
       <c r="K36" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L36" t="n">
-        <v>66.77726581231461</v>
+        <v>66.7772658123146</v>
       </c>
       <c r="M36" t="n">
-        <v>77.92591952282423</v>
+        <v>77.92591952282422</v>
       </c>
       <c r="N36" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678301</v>
       </c>
       <c r="O36" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436985</v>
       </c>
       <c r="P36" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R36" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S36" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857026</v>
       </c>
       <c r="T36" t="n">
         <v>1.239638567448078</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H37" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I37" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192739</v>
       </c>
       <c r="J37" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K37" t="n">
         <v>29.95618142582925</v>
       </c>
       <c r="L37" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277087</v>
       </c>
       <c r="M37" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329998</v>
       </c>
       <c r="N37" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895025</v>
       </c>
       <c r="O37" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226866</v>
       </c>
       <c r="P37" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q37" t="n">
         <v>21.5904841246724</v>
@@ -33840,7 +33840,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S37" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874386</v>
       </c>
       <c r="T37" t="n">
         <v>1.101674903766803</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522184</v>
       </c>
       <c r="H38" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661782</v>
       </c>
       <c r="I38" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J38" t="n">
-        <v>48.78605882329302</v>
+        <v>48.78605882329301</v>
       </c>
       <c r="K38" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499943</v>
       </c>
       <c r="L38" t="n">
-        <v>90.70891739503453</v>
+        <v>90.70891739503452</v>
       </c>
       <c r="M38" t="n">
         <v>100.9311483392162</v>
@@ -33907,16 +33907,16 @@
         <v>102.5643198396115</v>
       </c>
       <c r="O38" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284727</v>
       </c>
       <c r="P38" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130812</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208803</v>
       </c>
       <c r="R38" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074719</v>
       </c>
       <c r="S38" t="n">
         <v>13.09842342815994</v>
@@ -33965,40 +33965,40 @@
         <v>0.3075490678761282</v>
       </c>
       <c r="H39" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I39" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J39" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719157</v>
       </c>
       <c r="K39" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L39" t="n">
-        <v>66.77726581231461</v>
+        <v>66.7772658123146</v>
       </c>
       <c r="M39" t="n">
-        <v>77.92591952282423</v>
+        <v>77.92591952282422</v>
       </c>
       <c r="N39" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678301</v>
       </c>
       <c r="O39" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436985</v>
       </c>
       <c r="P39" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R39" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S39" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857026</v>
       </c>
       <c r="T39" t="n">
         <v>1.239638567448078</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H40" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I40" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192739</v>
       </c>
       <c r="J40" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K40" t="n">
         <v>29.95618142582925</v>
       </c>
       <c r="L40" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277087</v>
       </c>
       <c r="M40" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329998</v>
       </c>
       <c r="N40" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895025</v>
       </c>
       <c r="O40" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226866</v>
       </c>
       <c r="P40" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q40" t="n">
         <v>21.5904841246724</v>
@@ -34077,7 +34077,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S40" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874386</v>
       </c>
       <c r="T40" t="n">
         <v>1.101674903766803</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522184</v>
       </c>
       <c r="H41" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661782</v>
       </c>
       <c r="I41" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J41" t="n">
-        <v>48.78605882329302</v>
+        <v>48.78605882329301</v>
       </c>
       <c r="K41" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499943</v>
       </c>
       <c r="L41" t="n">
-        <v>90.70891739503453</v>
+        <v>90.70891739503452</v>
       </c>
       <c r="M41" t="n">
         <v>100.9311483392162</v>
@@ -34144,16 +34144,16 @@
         <v>102.5643198396115</v>
       </c>
       <c r="O41" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284727</v>
       </c>
       <c r="P41" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130812</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208803</v>
       </c>
       <c r="R41" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074719</v>
       </c>
       <c r="S41" t="n">
         <v>13.09842342815994</v>
@@ -34202,40 +34202,40 @@
         <v>0.3075490678761282</v>
       </c>
       <c r="H42" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I42" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J42" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719157</v>
       </c>
       <c r="K42" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L42" t="n">
-        <v>66.77726581231461</v>
+        <v>66.7772658123146</v>
       </c>
       <c r="M42" t="n">
-        <v>77.92591952282423</v>
+        <v>77.92591952282422</v>
       </c>
       <c r="N42" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678301</v>
       </c>
       <c r="O42" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436985</v>
       </c>
       <c r="P42" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R42" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S42" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857026</v>
       </c>
       <c r="T42" t="n">
         <v>1.239638567448078</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H43" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I43" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192739</v>
       </c>
       <c r="J43" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K43" t="n">
         <v>29.95618142582925</v>
       </c>
       <c r="L43" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277087</v>
       </c>
       <c r="M43" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329998</v>
       </c>
       <c r="N43" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895025</v>
       </c>
       <c r="O43" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226866</v>
       </c>
       <c r="P43" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q43" t="n">
         <v>21.5904841246724</v>
@@ -34314,7 +34314,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S43" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874386</v>
       </c>
       <c r="T43" t="n">
         <v>1.101674903766803</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5748073912522185</v>
+        <v>0.5748073912522184</v>
       </c>
       <c r="H44" t="n">
-        <v>5.886746195661783</v>
+        <v>5.886746195661782</v>
       </c>
       <c r="I44" t="n">
         <v>22.16026195125117</v>
       </c>
       <c r="J44" t="n">
-        <v>48.78605882329302</v>
+        <v>48.78605882329301</v>
       </c>
       <c r="K44" t="n">
-        <v>73.11765569499944</v>
+        <v>73.11765569499943</v>
       </c>
       <c r="L44" t="n">
-        <v>90.70891739503453</v>
+        <v>90.70891739503452</v>
       </c>
       <c r="M44" t="n">
         <v>100.9311483392162</v>
@@ -34381,16 +34381,16 @@
         <v>102.5643198396115</v>
       </c>
       <c r="O44" t="n">
-        <v>96.84857884284729</v>
+        <v>96.84857884284727</v>
       </c>
       <c r="P44" t="n">
-        <v>82.65802137130814</v>
+        <v>82.65802137130812</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.07273167208805</v>
+        <v>62.07273167208803</v>
       </c>
       <c r="R44" t="n">
-        <v>36.1072447907472</v>
+        <v>36.10724479074719</v>
       </c>
       <c r="S44" t="n">
         <v>13.09842342815994</v>
@@ -34439,40 +34439,40 @@
         <v>0.3075490678761282</v>
       </c>
       <c r="H45" t="n">
-        <v>2.970276523961555</v>
+        <v>2.970276523961554</v>
       </c>
       <c r="I45" t="n">
-        <v>10.58886045099828</v>
+        <v>10.58886045099827</v>
       </c>
       <c r="J45" t="n">
-        <v>29.05664241719158</v>
+        <v>29.05664241719157</v>
       </c>
       <c r="K45" t="n">
-        <v>49.66242996489217</v>
+        <v>49.66242996489215</v>
       </c>
       <c r="L45" t="n">
-        <v>66.77726581231461</v>
+        <v>66.7772658123146</v>
       </c>
       <c r="M45" t="n">
-        <v>77.92591952282423</v>
+        <v>77.92591952282422</v>
       </c>
       <c r="N45" t="n">
-        <v>79.98838673678303</v>
+        <v>79.98838673678301</v>
       </c>
       <c r="O45" t="n">
-        <v>73.17374686436986</v>
+        <v>73.17374686436985</v>
       </c>
       <c r="P45" t="n">
-        <v>58.72838297013541</v>
+        <v>58.72838297013539</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.25836873450367</v>
+        <v>39.25836873450366</v>
       </c>
       <c r="R45" t="n">
-        <v>19.09502019673015</v>
+        <v>19.09502019673014</v>
       </c>
       <c r="S45" t="n">
-        <v>5.712589045857027</v>
+        <v>5.712589045857026</v>
       </c>
       <c r="T45" t="n">
         <v>1.239638567448078</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2578388072645711</v>
+        <v>0.257838807264571</v>
       </c>
       <c r="H46" t="n">
-        <v>2.292421395497734</v>
+        <v>2.292421395497733</v>
       </c>
       <c r="I46" t="n">
-        <v>7.75391613119274</v>
+        <v>7.753916131192739</v>
       </c>
       <c r="J46" t="n">
-        <v>18.22920367360518</v>
+        <v>18.22920367360517</v>
       </c>
       <c r="K46" t="n">
         <v>29.95618142582925</v>
       </c>
       <c r="L46" t="n">
-        <v>38.33359867277088</v>
+        <v>38.33359867277087</v>
       </c>
       <c r="M46" t="n">
-        <v>40.41740503329999</v>
+        <v>40.41740503329998</v>
       </c>
       <c r="N46" t="n">
-        <v>39.45636947895026</v>
+        <v>39.45636947895025</v>
       </c>
       <c r="O46" t="n">
-        <v>36.44434341226867</v>
+        <v>36.44434341226866</v>
       </c>
       <c r="P46" t="n">
-        <v>31.18443174407139</v>
+        <v>31.18443174407138</v>
       </c>
       <c r="Q46" t="n">
         <v>21.5904841246724</v>
@@ -34551,7 +34551,7 @@
         <v>11.59337037027789</v>
       </c>
       <c r="S46" t="n">
-        <v>4.493427213874387</v>
+        <v>4.493427213874386</v>
       </c>
       <c r="T46" t="n">
         <v>1.101674903766803</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>315.6836880634669</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L11" t="n">
-        <v>442.1082841475055</v>
+        <v>34.52751147191638</v>
       </c>
       <c r="M11" t="n">
-        <v>498.1424273827394</v>
+        <v>498.1424273827393</v>
       </c>
       <c r="N11" t="n">
         <v>484.7172074029608</v>
@@ -35425,10 +35425,10 @@
         <v>404.9340177042957</v>
       </c>
       <c r="P11" t="n">
-        <v>62.99760677446359</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>157.4588465069739</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.91941669305638</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>281.4710689145777</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="N12" t="n">
-        <v>369.0637238950012</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>469.3353133130071</v>
       </c>
       <c r="P12" t="n">
-        <v>363.8757761779104</v>
+        <v>265.0789680004896</v>
       </c>
       <c r="Q12" t="n">
         <v>198.623651346215</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.54067607114013</v>
+        <v>60.54067607113963</v>
       </c>
       <c r="K13" t="n">
         <v>165.6679440078215</v>
@@ -35586,7 +35586,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.20665478932851</v>
+        <v>85.2066547893285</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>315.6836880634669</v>
       </c>
       <c r="L14" t="n">
-        <v>442.1082841475055</v>
+        <v>34.52751147191603</v>
       </c>
       <c r="M14" t="n">
         <v>498.1424273827394</v>
@@ -35665,7 +35665,7 @@
         <v>313.1195329430791</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.5617618948515</v>
+        <v>157.4588465069739</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.91941669305638</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>281.4710689145777</v>
@@ -35732,10 +35732,10 @@
         <v>436.2942811356638</v>
       </c>
       <c r="M15" t="n">
-        <v>9.907426475737422</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="N15" t="n">
-        <v>557.7799487654789</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>469.3353133130071</v>
@@ -35744,7 +35744,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>99.82684316879396</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.54067607114017</v>
+        <v>60.54067607114011</v>
       </c>
       <c r="K16" t="n">
         <v>165.6679440078215</v>
       </c>
       <c r="L16" t="n">
-        <v>241.725049795788</v>
+        <v>241.7250497957895</v>
       </c>
       <c r="M16" t="n">
-        <v>261.3709033556542</v>
+        <v>261.3709033556541</v>
       </c>
       <c r="N16" t="n">
-        <v>260.8430350962526</v>
+        <v>260.8430350962525</v>
       </c>
       <c r="O16" t="n">
-        <v>237.6707107932976</v>
+        <v>237.6707107932975</v>
       </c>
       <c r="P16" t="n">
-        <v>196.5570993598964</v>
+        <v>196.5570993598963</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.20665478932854</v>
+        <v>85.2066547893285</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L17" t="n">
-        <v>350.2111995353829</v>
+        <v>442.1082841475055</v>
       </c>
       <c r="M17" t="n">
-        <v>498.1424273827394</v>
+        <v>498.1424273827393</v>
       </c>
       <c r="N17" t="n">
         <v>484.7172074029608</v>
@@ -35899,10 +35899,10 @@
         <v>404.9340177042957</v>
       </c>
       <c r="P17" t="n">
-        <v>313.1195329430791</v>
+        <v>62.99760677446405</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.4588465069739</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>89.91941669305636</v>
       </c>
       <c r="K18" t="n">
         <v>281.4710689145777</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>369.0637238950016</v>
       </c>
       <c r="N18" t="n">
-        <v>458.9831405880579</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>469.3353133130071</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>63.89980541031755</v>
+        <v>63.89980541031754</v>
       </c>
       <c r="L19" t="n">
         <v>139.9569111982855</v>
@@ -36057,7 +36057,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P19" t="n">
-        <v>94.78896076239239</v>
+        <v>94.78896076239238</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>315.6836880634669</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L20" t="n">
         <v>442.1082841475055</v>
       </c>
       <c r="M20" t="n">
-        <v>498.1424273827394</v>
+        <v>498.1424273827393</v>
       </c>
       <c r="N20" t="n">
-        <v>77.1364347273723</v>
+        <v>484.7172074029608</v>
       </c>
       <c r="O20" t="n">
         <v>404.9340177042957</v>
       </c>
       <c r="P20" t="n">
-        <v>313.1195329430791</v>
+        <v>62.99760677446405</v>
       </c>
       <c r="Q20" t="n">
-        <v>157.4588465069739</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.91941669305638</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M21" t="n">
-        <v>557.7799487654792</v>
+        <v>557.7799487654789</v>
       </c>
       <c r="N21" t="n">
-        <v>291.3784953903157</v>
+        <v>99.82684316879396</v>
       </c>
       <c r="O21" t="n">
         <v>469.3353133130071</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>63.89980541031755</v>
+        <v>63.89980541031754</v>
       </c>
       <c r="L22" t="n">
         <v>139.9569111982855</v>
@@ -36294,7 +36294,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P22" t="n">
-        <v>94.78896076239239</v>
+        <v>94.78896076239238</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5118611190563</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>315.6836880634669</v>
+        <v>65.56176189485249</v>
       </c>
       <c r="L23" t="n">
         <v>442.1082841475055</v>
       </c>
       <c r="M23" t="n">
-        <v>498.1424273827394</v>
+        <v>498.1424273827393</v>
       </c>
       <c r="N23" t="n">
         <v>484.7172074029608</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>404.9340177042957</v>
       </c>
       <c r="P23" t="n">
-        <v>313.1195329430791</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.30023041662387</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>281.4710689145777</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M24" t="n">
-        <v>557.7799487654789</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>99.82684316879441</v>
       </c>
       <c r="O24" t="n">
         <v>469.3353133130071</v>
@@ -36455,7 +36455,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.82684316879396</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>63.89980541031755</v>
+        <v>63.89980541031754</v>
       </c>
       <c r="L25" t="n">
         <v>139.9569111982855</v>
@@ -36531,7 +36531,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P25" t="n">
-        <v>94.78896076239239</v>
+        <v>94.78896076239238</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>417.4518266609708</v>
       </c>
       <c r="L26" t="n">
-        <v>543.8764227450094</v>
+        <v>543.8764227450093</v>
       </c>
       <c r="M26" t="n">
         <v>599.9105659802433</v>
@@ -36607,13 +36607,13 @@
         <v>586.4853460004647</v>
       </c>
       <c r="O26" t="n">
-        <v>506.7021563017997</v>
+        <v>477.5652927542097</v>
       </c>
       <c r="P26" t="n">
-        <v>313.1195329430791</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q26" t="n">
-        <v>230.0901215568878</v>
+        <v>259.2269851044778</v>
       </c>
       <c r="R26" t="n">
         <v>48.14347974914593</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.91941669305638</v>
+        <v>89.91941669305636</v>
       </c>
       <c r="K27" t="n">
         <v>281.4710689145777</v>
       </c>
       <c r="L27" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M27" t="n">
         <v>567.8585998361842</v>
@@ -36771,7 +36771,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.20665478932847</v>
+        <v>85.20665478932848</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5118611190563</v>
+        <v>223.2799997165602</v>
       </c>
       <c r="K29" t="n">
         <v>417.4518266609708</v>
       </c>
       <c r="L29" t="n">
-        <v>514.7395591974191</v>
+        <v>543.8764227450094</v>
       </c>
       <c r="M29" t="n">
         <v>599.9105659802433</v>
@@ -36847,13 +36847,13 @@
         <v>506.7021563017996</v>
       </c>
       <c r="P29" t="n">
-        <v>414.8876715405829</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q29" t="n">
         <v>259.2269851044778</v>
       </c>
       <c r="R29" t="n">
-        <v>48.14347974914589</v>
+        <v>19.00661620155585</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>281.4710689145777</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M30" t="n">
         <v>567.8585998361842</v>
       </c>
       <c r="N30" t="n">
-        <v>185.8828430445312</v>
+        <v>596.4183323156942</v>
       </c>
       <c r="O30" t="n">
         <v>469.3353133130071</v>
@@ -36929,7 +36929,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q30" t="n">
-        <v>198.623651346215</v>
+        <v>69.55923098962971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.54067607114006</v>
+        <v>60.54067607114013</v>
       </c>
       <c r="K31" t="n">
-        <v>165.6679440078214</v>
+        <v>165.6679440078215</v>
       </c>
       <c r="L31" t="n">
-        <v>241.7250497957894</v>
+        <v>241.7250497957895</v>
       </c>
       <c r="M31" t="n">
         <v>261.3709033556541</v>
@@ -37008,7 +37008,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.20665478933019</v>
+        <v>85.2066547893285</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>417.4518266609708</v>
       </c>
       <c r="L32" t="n">
-        <v>514.7395591974193</v>
+        <v>543.8764227450094</v>
       </c>
       <c r="M32" t="n">
         <v>599.9105659802433</v>
@@ -37081,16 +37081,16 @@
         <v>586.4853460004647</v>
       </c>
       <c r="O32" t="n">
-        <v>506.7021563017997</v>
+        <v>506.7021563017996</v>
       </c>
       <c r="P32" t="n">
-        <v>414.887671540583</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q32" t="n">
-        <v>157.4588465069739</v>
+        <v>230.0901215568878</v>
       </c>
       <c r="R32" t="n">
-        <v>48.14347974914593</v>
+        <v>48.14347974914594</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>89.91941669305636</v>
       </c>
       <c r="K33" t="n">
-        <v>69.55923098962958</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L33" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M33" t="n">
-        <v>567.8585998361842</v>
+        <v>67.40369387196488</v>
       </c>
       <c r="N33" t="n">
         <v>596.4183323156942</v>
@@ -37166,7 +37166,7 @@
         <v>363.8757761779104</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.5406760711401</v>
+        <v>60.54067607114011</v>
       </c>
       <c r="K34" t="n">
         <v>165.6679440078215</v>
@@ -37245,7 +37245,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.20665478932847</v>
+        <v>85.20665478932848</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>121.5118611190563</v>
       </c>
       <c r="K35" t="n">
         <v>315.6836880634669</v>
@@ -37321,10 +37321,10 @@
         <v>404.9340177042957</v>
       </c>
       <c r="P35" t="n">
-        <v>313.1195329430791</v>
+        <v>236.2440479480653</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.63637612404244</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.91941669305638</v>
+        <v>89.91941669305636</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L36" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M36" t="n">
-        <v>567.8585998361842</v>
+        <v>67.4036938719651</v>
       </c>
       <c r="N36" t="n">
         <v>596.4183323156942</v>
@@ -37400,10 +37400,10 @@
         <v>469.3353133130071</v>
       </c>
       <c r="P36" t="n">
-        <v>343.5155904744841</v>
+        <v>363.8757761779104</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>63.89980541031755</v>
+        <v>63.89980541031754</v>
       </c>
       <c r="L37" t="n">
         <v>139.9569111982855</v>
@@ -37479,7 +37479,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P37" t="n">
-        <v>94.78896076239239</v>
+        <v>94.78896076239238</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,19 +37546,19 @@
         <v>315.6836880634669</v>
       </c>
       <c r="L38" t="n">
-        <v>207.7739526455173</v>
+        <v>442.1082841475055</v>
       </c>
       <c r="M38" t="n">
         <v>498.1424273827394</v>
       </c>
       <c r="N38" t="n">
-        <v>484.7172074029608</v>
+        <v>250.3828759009731</v>
       </c>
       <c r="O38" t="n">
         <v>404.9340177042957</v>
       </c>
       <c r="P38" t="n">
-        <v>313.1195329430791</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q38" t="n">
         <v>157.4588465069739</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.91941669305638</v>
+        <v>89.91941669305636</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L39" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M39" t="n">
-        <v>567.8585998361842</v>
+        <v>67.40369387196465</v>
       </c>
       <c r="N39" t="n">
         <v>596.4183323156942</v>
@@ -37637,7 +37637,7 @@
         <v>469.3353133130071</v>
       </c>
       <c r="P39" t="n">
-        <v>144.8919391282688</v>
+        <v>363.8757761779104</v>
       </c>
       <c r="Q39" t="n">
         <v>198.623651346215</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>63.89980541031755</v>
+        <v>63.89980541031754</v>
       </c>
       <c r="L40" t="n">
         <v>139.9569111982855</v>
@@ -37716,7 +37716,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P40" t="n">
-        <v>94.78896076239239</v>
+        <v>94.78896076239238</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>315.6836880634669</v>
+        <v>202.8612176805355</v>
       </c>
       <c r="L41" t="n">
         <v>442.1082841475055</v>
@@ -37795,10 +37795,10 @@
         <v>404.9340177042957</v>
       </c>
       <c r="P41" t="n">
-        <v>313.1195329430791</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.63637612404289</v>
+        <v>157.4588465069739</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.91941669305638</v>
+        <v>89.91941669305636</v>
       </c>
       <c r="K42" t="n">
         <v>281.4710689145777</v>
       </c>
       <c r="L42" t="n">
-        <v>436.2942811356638</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M42" t="n">
         <v>567.8585998361842</v>
       </c>
       <c r="N42" t="n">
-        <v>95.96342635147468</v>
+        <v>95.96342635147515</v>
       </c>
       <c r="O42" t="n">
         <v>469.3353133130071</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.89980541031755</v>
+        <v>63.89980541031754</v>
       </c>
       <c r="L43" t="n">
         <v>139.9569111982855</v>
@@ -37953,7 +37953,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P43" t="n">
-        <v>94.78896076239239</v>
+        <v>94.78896076239238</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38032,10 +38032,10 @@
         <v>404.9340177042957</v>
       </c>
       <c r="P44" t="n">
-        <v>200.2970625601475</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.4588465069739</v>
+        <v>44.63637612404244</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>89.91941669305636</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>281.4710689145777</v>
       </c>
       <c r="L45" t="n">
-        <v>307.2298607790786</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M45" t="n">
-        <v>567.8585998361842</v>
+        <v>67.40369387196465</v>
       </c>
       <c r="N45" t="n">
         <v>596.4183323156942</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>63.89980541031755</v>
+        <v>63.89980541031754</v>
       </c>
       <c r="L46" t="n">
         <v>139.9569111982855</v>
@@ -38190,7 +38190,7 @@
         <v>135.9025721957936</v>
       </c>
       <c r="P46" t="n">
-        <v>94.78896076239239</v>
+        <v>94.78896076239238</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
